--- a/calendar_chilean_2022B.xlsx
+++ b/calendar_chilean_2022B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed268546/Dropbox/Mac/Documents/codes/SPOCK_chilean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A7BCCB-CED1-704C-8C1E-C9E093497EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC5493A-4542-1945-9CC4-A6ADF8C42552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{29A8BF1E-0110-C24B-9407-C010B9269ACA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{29A8BF1E-0110-C24B-9407-C010B9269ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -51,12 +51,57 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Observed</t>
+  </si>
+  <si>
+    <t>Leiva</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>not sent</t>
+  </si>
+  <si>
+    <t>nights Leiva</t>
+  </si>
+  <si>
+    <t>Arevalo</t>
+  </si>
+  <si>
+    <t>nights Arevalo</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>nights None</t>
+  </si>
+  <si>
+    <t>sent 1 month in advance</t>
+  </si>
+  <si>
+    <t>sent 2 weeks in advance</t>
+  </si>
+  <si>
+    <t>sent 1 weeks in advance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,8 +117,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,8 +144,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -132,21 +202,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -166,21 +221,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -234,10 +274,183 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -252,7 +465,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -264,39 +477,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -305,37 +490,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -344,83 +503,151 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -737,53 +964,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD27D292-CBD1-CA4F-A514-6D8CE062AE5E}">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:L215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="I137" sqref="I137"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="G135" sqref="G135:H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="F1" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>44866</v>
       </c>
-      <c r="B2" s="14">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>44867</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
       <c r="C3" s="2">
@@ -792,15 +1046,25 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="E3" s="35">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>44868</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" s="2">
@@ -809,15 +1073,25 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="E4" s="35">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>44869</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <v>0</v>
       </c>
       <c r="C5" s="2">
@@ -826,15 +1100,19 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="E5" s="35">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>44870</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <v>0</v>
       </c>
       <c r="C6" s="2">
@@ -843,15 +1121,19 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="E6" s="35">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>44871</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <v>0</v>
       </c>
       <c r="C7" s="2">
@@ -860,15 +1142,19 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="E7" s="35">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>44872</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <v>0</v>
       </c>
       <c r="C8" s="2">
@@ -877,15 +1163,19 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="E8" s="35">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>44873</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="12">
         <v>0</v>
       </c>
       <c r="C9" s="1">
@@ -894,15 +1184,25 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="E9" s="35">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>44874</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <v>0</v>
       </c>
       <c r="C10" s="1">
@@ -911,15 +1211,25 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="E10" s="35">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>44875</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <v>0</v>
       </c>
       <c r="C11" s="1">
@@ -928,15 +1238,25 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="E11" s="35">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>44876</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <v>0</v>
       </c>
       <c r="C12" s="2">
@@ -945,15 +1265,19 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="E12" s="35">
+        <v>0</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>44877</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <v>0</v>
       </c>
       <c r="C13" s="2">
@@ -962,15 +1286,19 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="E13" s="35">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>44878</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="12">
         <v>0</v>
       </c>
       <c r="C14" s="2">
@@ -979,15 +1307,19 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="E14" s="35">
+        <v>0</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="33"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <v>44879</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="12">
         <v>0</v>
       </c>
       <c r="C15" s="2">
@@ -996,15 +1328,19 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+      <c r="E15" s="35">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>44880</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <v>0</v>
       </c>
       <c r="C16" s="2">
@@ -1013,15 +1349,25 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="E16" s="35">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <v>44881</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="12">
         <v>0</v>
       </c>
       <c r="C17" s="2">
@@ -1030,15 +1376,25 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
         <v>44882</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <v>0</v>
       </c>
       <c r="C18" s="2">
@@ -1047,15 +1403,25 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+      <c r="E18" s="35">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <v>44883</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="12">
         <v>0</v>
       </c>
       <c r="C19" s="2">
@@ -1064,15 +1430,19 @@
       <c r="D19" s="2">
         <v>0</v>
       </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
+      <c r="E19" s="35">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
         <v>44884</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="12">
         <v>0</v>
       </c>
       <c r="C20" s="2">
@@ -1081,15 +1451,19 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
+      <c r="E20" s="35">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="33"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
         <v>44885</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="12">
         <v>0</v>
       </c>
       <c r="C21" s="2">
@@ -1098,15 +1472,19 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
+      <c r="E21" s="35">
+        <v>0</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="33"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <v>44886</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="12">
         <v>0</v>
       </c>
       <c r="C22" s="2">
@@ -1115,16 +1493,20 @@
       <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
+      <c r="E22" s="35">
+        <v>0</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="33"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <v>44887</v>
       </c>
-      <c r="B23" s="16">
-        <v>0</v>
+      <c r="B23" s="36">
+        <v>1</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -1132,16 +1514,26 @@
       <c r="D23" s="2">
         <v>0</v>
       </c>
-      <c r="E23" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
         <v>44888</v>
       </c>
-      <c r="B24" s="16">
-        <v>0</v>
+      <c r="B24" s="36">
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -1149,16 +1541,26 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
         <v>44889</v>
       </c>
-      <c r="B25" s="16">
-        <v>0</v>
+      <c r="B25" s="36">
+        <v>1</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -1166,15 +1568,25 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
         <v>44890</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="12">
         <v>0</v>
       </c>
       <c r="C26" s="2">
@@ -1183,15 +1595,19 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="E26" s="35">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="9">
         <v>44891</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="12">
         <v>0</v>
       </c>
       <c r="C27" s="2">
@@ -1200,15 +1616,19 @@
       <c r="D27" s="2">
         <v>0</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
+      <c r="E27" s="35">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
         <v>44892</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <v>0</v>
       </c>
       <c r="C28" s="2">
@@ -1217,15 +1637,19 @@
       <c r="D28" s="2">
         <v>0</v>
       </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+      <c r="E28" s="35">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="9">
         <v>44893</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="12">
         <v>0</v>
       </c>
       <c r="C29" s="2">
@@ -1234,15 +1658,19 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
+      <c r="E29" s="35">
+        <v>0</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="33"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
         <v>44894</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="11">
         <v>1</v>
       </c>
       <c r="C30" s="2">
@@ -1251,15 +1679,25 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
+      <c r="E30" s="35">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="33"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
         <v>44895</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="11">
         <v>1</v>
       </c>
       <c r="C31" s="2">
@@ -1268,15 +1706,25 @@
       <c r="D31" s="2">
         <v>0</v>
       </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
+      <c r="E31" s="35">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="33"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
         <v>44896</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="11">
         <v>1</v>
       </c>
       <c r="C32" s="2">
@@ -1285,15 +1733,25 @@
       <c r="D32" s="2">
         <v>0</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
+      <c r="E32" s="35">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
         <v>44897</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="12">
         <v>0</v>
       </c>
       <c r="C33" s="2">
@@ -1302,15 +1760,19 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
+      <c r="E33" s="35">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
         <v>44898</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="12">
         <v>0</v>
       </c>
       <c r="C34" s="2">
@@ -1319,15 +1781,19 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
+      <c r="E34" s="35">
+        <v>0</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
         <v>44899</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="12">
         <v>0</v>
       </c>
       <c r="C35" s="2">
@@ -1336,15 +1802,19 @@
       <c r="D35" s="2">
         <v>0</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
+      <c r="E35" s="35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
         <v>44900</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="12">
         <v>0</v>
       </c>
       <c r="C36" s="2">
@@ -1353,15 +1823,19 @@
       <c r="D36" s="2">
         <v>0</v>
       </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
+      <c r="E36" s="35">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
         <v>44901</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="12">
         <v>0</v>
       </c>
       <c r="C37" s="1">
@@ -1370,15 +1844,25 @@
       <c r="D37" s="2">
         <v>0</v>
       </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
+      <c r="E37" s="35">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
         <v>44902</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="12">
         <v>0</v>
       </c>
       <c r="C38" s="1">
@@ -1387,15 +1871,25 @@
       <c r="D38" s="2">
         <v>0</v>
       </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
+      <c r="E38" s="35">
+        <v>0</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
         <v>44903</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="12">
         <v>0</v>
       </c>
       <c r="C39" s="1">
@@ -1404,15 +1898,25 @@
       <c r="D39" s="2">
         <v>0</v>
       </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
+      <c r="E39" s="35">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="33"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
         <v>44904</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="12">
         <v>0</v>
       </c>
       <c r="C40" s="2">
@@ -1421,15 +1925,19 @@
       <c r="D40" s="2">
         <v>0</v>
       </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
+      <c r="E40" s="35">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
         <v>44905</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="12">
         <v>0</v>
       </c>
       <c r="C41" s="2">
@@ -1438,15 +1946,19 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
+      <c r="E41" s="35">
+        <v>0</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="9">
         <v>44906</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="12">
         <v>0</v>
       </c>
       <c r="C42" s="2">
@@ -1455,15 +1967,19 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
+      <c r="E42" s="35">
+        <v>0</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="16"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="9">
         <v>44907</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="12">
         <v>0</v>
       </c>
       <c r="C43" s="2">
@@ -1472,15 +1988,19 @@
       <c r="D43" s="2">
         <v>0</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="12">
+      <c r="E43" s="35">
+        <v>0</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
         <v>44908</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="12">
         <v>0</v>
       </c>
       <c r="C44" s="2">
@@ -1489,15 +2009,25 @@
       <c r="D44" s="1">
         <v>1</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
+      <c r="E44" s="35">
+        <v>0</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
         <v>44909</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="12">
         <v>0</v>
       </c>
       <c r="C45" s="2">
@@ -1506,15 +2036,25 @@
       <c r="D45" s="1">
         <v>1</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="12">
+      <c r="E45" s="35">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="16"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
         <v>44910</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="12">
         <v>0</v>
       </c>
       <c r="C46" s="2">
@@ -1523,15 +2063,25 @@
       <c r="D46" s="1">
         <v>1</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
+      <c r="E46" s="35">
+        <v>0</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
         <v>44911</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="12">
         <v>0</v>
       </c>
       <c r="C47" s="2">
@@ -1540,15 +2090,19 @@
       <c r="D47" s="2">
         <v>0</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="12">
+      <c r="E47" s="35">
+        <v>0</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="33"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
         <v>44912</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="12">
         <v>0</v>
       </c>
       <c r="C48" s="2">
@@ -1557,15 +2111,19 @@
       <c r="D48" s="2">
         <v>0</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
+      <c r="E48" s="35">
+        <v>0</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="33"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
         <v>44913</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="12">
         <v>0</v>
       </c>
       <c r="C49" s="2">
@@ -1574,15 +2132,19 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="12">
+      <c r="E49" s="35">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="33"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
         <v>44914</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="12">
         <v>0</v>
       </c>
       <c r="C50" s="2">
@@ -1591,16 +2153,20 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="12">
+      <c r="E50" s="35">
+        <v>0</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="16"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
         <v>44915</v>
       </c>
-      <c r="B51" s="16">
-        <v>0</v>
+      <c r="B51" s="11">
+        <v>1</v>
       </c>
       <c r="C51" s="2">
         <v>0</v>
@@ -1608,16 +2174,26 @@
       <c r="D51" s="2">
         <v>0</v>
       </c>
-      <c r="E51" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="12">
+      <c r="E51" s="35">
+        <v>0</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
         <v>44916</v>
       </c>
-      <c r="B52" s="16">
-        <v>0</v>
+      <c r="B52" s="11">
+        <v>1</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -1625,16 +2201,26 @@
       <c r="D52" s="2">
         <v>0</v>
       </c>
-      <c r="E52" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="12">
+      <c r="E52" s="35">
+        <v>0</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="9">
         <v>44917</v>
       </c>
-      <c r="B53" s="16">
-        <v>0</v>
+      <c r="B53" s="11">
+        <v>1</v>
       </c>
       <c r="C53" s="2">
         <v>0</v>
@@ -1642,15 +2228,25 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="12">
+      <c r="E53" s="35">
+        <v>0</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="16"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
         <v>44918</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="12">
         <v>0</v>
       </c>
       <c r="C54" s="2">
@@ -1659,15 +2255,19 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="12">
+      <c r="E54" s="35">
+        <v>0</v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="16"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
         <v>44919</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="12">
         <v>0</v>
       </c>
       <c r="C55" s="2">
@@ -1676,15 +2276,19 @@
       <c r="D55" s="2">
         <v>0</v>
       </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="12">
+      <c r="E55" s="35">
+        <v>0</v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="16"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="9">
         <v>44920</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="12">
         <v>0</v>
       </c>
       <c r="C56" s="2">
@@ -1693,15 +2297,19 @@
       <c r="D56" s="2">
         <v>0</v>
       </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="12">
+      <c r="E56" s="35">
+        <v>0</v>
+      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="33"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
         <v>44921</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="12">
         <v>0</v>
       </c>
       <c r="C57" s="2">
@@ -1710,15 +2318,19 @@
       <c r="D57" s="2">
         <v>0</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="12">
+      <c r="E57" s="35">
+        <v>0</v>
+      </c>
+      <c r="F57" s="15"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="33"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
         <v>44922</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="11">
         <v>1</v>
       </c>
       <c r="C58" s="2">
@@ -1727,15 +2339,25 @@
       <c r="D58" s="2">
         <v>0</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="12">
+      <c r="E58" s="35">
+        <v>0</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="33"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="9">
         <v>44923</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="11">
         <v>1</v>
       </c>
       <c r="C59" s="2">
@@ -1744,15 +2366,25 @@
       <c r="D59" s="2">
         <v>0</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="12">
+      <c r="E59" s="35">
+        <v>0</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="16"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="9">
         <v>44924</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="11">
         <v>1</v>
       </c>
       <c r="C60" s="2">
@@ -1761,15 +2393,25 @@
       <c r="D60" s="2">
         <v>0</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="12">
+      <c r="E60" s="35">
+        <v>0</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="16"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="9">
         <v>44925</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="12">
         <v>0</v>
       </c>
       <c r="C61" s="2">
@@ -1778,15 +2420,19 @@
       <c r="D61" s="2">
         <v>0</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="12">
+      <c r="E61" s="35">
+        <v>0</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="16"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
         <v>44926</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="12">
         <v>0</v>
       </c>
       <c r="C62" s="2">
@@ -1795,15 +2441,19 @@
       <c r="D62" s="2">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="12">
+      <c r="E62" s="35">
+        <v>0</v>
+      </c>
+      <c r="F62" s="15"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
         <v>44927</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="12">
         <v>0</v>
       </c>
       <c r="C63" s="2">
@@ -1812,15 +2462,19 @@
       <c r="D63" s="2">
         <v>0</v>
       </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="12">
+      <c r="E63" s="35">
+        <v>0</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="16"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
         <v>44928</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="12">
         <v>0</v>
       </c>
       <c r="C64" s="2">
@@ -1829,15 +2483,19 @@
       <c r="D64" s="2">
         <v>0</v>
       </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="12">
+      <c r="E64" s="35">
+        <v>0</v>
+      </c>
+      <c r="F64" s="15"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="16"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
         <v>44929</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="12">
         <v>0</v>
       </c>
       <c r="C65" s="1">
@@ -1846,15 +2504,25 @@
       <c r="D65" s="2">
         <v>0</v>
       </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="12">
+      <c r="E65" s="35">
+        <v>0</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="33"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="9">
         <v>44930</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="12">
         <v>0</v>
       </c>
       <c r="C66" s="1">
@@ -1863,15 +2531,25 @@
       <c r="D66" s="2">
         <v>0</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="12">
+      <c r="E66" s="35">
+        <v>0</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="33"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
         <v>44931</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="12">
         <v>0</v>
       </c>
       <c r="C67" s="1">
@@ -1880,15 +2558,25 @@
       <c r="D67" s="2">
         <v>0</v>
       </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="12">
+      <c r="E67" s="35">
+        <v>0</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="33"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
         <v>44932</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="12">
         <v>0</v>
       </c>
       <c r="C68" s="2">
@@ -1897,15 +2585,19 @@
       <c r="D68" s="2">
         <v>0</v>
       </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="12">
+      <c r="E68" s="35">
+        <v>0</v>
+      </c>
+      <c r="F68" s="15"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="16"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
         <v>44933</v>
       </c>
-      <c r="B69" s="16">
+      <c r="B69" s="12">
         <v>0</v>
       </c>
       <c r="C69" s="2">
@@ -1914,15 +2606,19 @@
       <c r="D69" s="2">
         <v>0</v>
       </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="12">
+      <c r="E69" s="35">
+        <v>0</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="16"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
         <v>44934</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="12">
         <v>0</v>
       </c>
       <c r="C70" s="2">
@@ -1931,15 +2627,19 @@
       <c r="D70" s="2">
         <v>0</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="12">
+      <c r="E70" s="35">
+        <v>0</v>
+      </c>
+      <c r="F70" s="15"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="16"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="9">
         <v>44935</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="12">
         <v>0</v>
       </c>
       <c r="C71" s="2">
@@ -1948,15 +2648,19 @@
       <c r="D71" s="2">
         <v>0</v>
       </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="12">
+      <c r="E71" s="35">
+        <v>0</v>
+      </c>
+      <c r="F71" s="15"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="16"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="9">
         <v>44936</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="12">
         <v>0</v>
       </c>
       <c r="C72" s="2">
@@ -1965,15 +2669,25 @@
       <c r="D72" s="1">
         <v>1</v>
       </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="12">
+      <c r="E72" s="35">
+        <v>0</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="16"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="9">
         <v>44937</v>
       </c>
-      <c r="B73" s="16">
+      <c r="B73" s="12">
         <v>0</v>
       </c>
       <c r="C73" s="2">
@@ -1982,15 +2696,25 @@
       <c r="D73" s="1">
         <v>1</v>
       </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="12">
+      <c r="E73" s="35">
+        <v>0</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="16"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="9">
         <v>44938</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="12">
         <v>0</v>
       </c>
       <c r="C74" s="2">
@@ -1999,15 +2723,25 @@
       <c r="D74" s="1">
         <v>1</v>
       </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="12">
+      <c r="E74" s="35">
+        <v>0</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="33"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="9">
         <v>44939</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="12">
         <v>0</v>
       </c>
       <c r="C75" s="2">
@@ -2016,15 +2750,19 @@
       <c r="D75" s="2">
         <v>0</v>
       </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="12">
+      <c r="E75" s="35">
+        <v>0</v>
+      </c>
+      <c r="F75" s="15"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="33"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="9">
         <v>44940</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="12">
         <v>0</v>
       </c>
       <c r="C76" s="2">
@@ -2033,15 +2771,19 @@
       <c r="D76" s="2">
         <v>0</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="12">
+      <c r="E76" s="35">
+        <v>0</v>
+      </c>
+      <c r="F76" s="15"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="33"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="9">
         <v>44941</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="12">
         <v>0</v>
       </c>
       <c r="C77" s="2">
@@ -2050,15 +2792,19 @@
       <c r="D77" s="2">
         <v>0</v>
       </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="12">
+      <c r="E77" s="35">
+        <v>0</v>
+      </c>
+      <c r="F77" s="15"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="16"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="9">
         <v>44942</v>
       </c>
-      <c r="B78" s="16">
+      <c r="B78" s="12">
         <v>0</v>
       </c>
       <c r="C78" s="2">
@@ -2067,16 +2813,20 @@
       <c r="D78" s="2">
         <v>0</v>
       </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="12">
+      <c r="E78" s="35">
+        <v>0</v>
+      </c>
+      <c r="F78" s="15"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="16"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="9">
         <v>44943</v>
       </c>
-      <c r="B79" s="16">
-        <v>0</v>
+      <c r="B79" s="11">
+        <v>1</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -2084,16 +2834,26 @@
       <c r="D79" s="2">
         <v>0</v>
       </c>
-      <c r="E79" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="12">
+      <c r="E79" s="35">
+        <v>0</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="16"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="9">
         <v>44944</v>
       </c>
-      <c r="B80" s="16">
-        <v>0</v>
+      <c r="B80" s="11">
+        <v>1</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -2101,16 +2861,26 @@
       <c r="D80" s="2">
         <v>0</v>
       </c>
-      <c r="E80" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="12">
+      <c r="E80" s="35">
+        <v>0</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="16"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="9">
         <v>44945</v>
       </c>
-      <c r="B81" s="16">
-        <v>0</v>
+      <c r="B81" s="11">
+        <v>1</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -2118,15 +2888,25 @@
       <c r="D81" s="2">
         <v>0</v>
       </c>
-      <c r="E81" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="12">
+      <c r="E81" s="35">
+        <v>0</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="16"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="9">
         <v>44946</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="12">
         <v>0</v>
       </c>
       <c r="C82" s="2">
@@ -2135,15 +2915,19 @@
       <c r="D82" s="2">
         <v>0</v>
       </c>
-      <c r="E82" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="12">
+      <c r="E82" s="35">
+        <v>0</v>
+      </c>
+      <c r="F82" s="15"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="16"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="9">
         <v>44947</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="12">
         <v>0</v>
       </c>
       <c r="C83" s="2">
@@ -2152,15 +2936,19 @@
       <c r="D83" s="2">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="12">
+      <c r="E83" s="35">
+        <v>0</v>
+      </c>
+      <c r="F83" s="15"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="33"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="9">
         <v>44948</v>
       </c>
-      <c r="B84" s="16">
+      <c r="B84" s="12">
         <v>0</v>
       </c>
       <c r="C84" s="2">
@@ -2169,15 +2957,19 @@
       <c r="D84" s="2">
         <v>0</v>
       </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="12">
+      <c r="E84" s="35">
+        <v>0</v>
+      </c>
+      <c r="F84" s="15"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="33"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="9">
         <v>44949</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="12">
         <v>0</v>
       </c>
       <c r="C85" s="2">
@@ -2186,15 +2978,19 @@
       <c r="D85" s="2">
         <v>0</v>
       </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="12">
+      <c r="E85" s="35">
+        <v>0</v>
+      </c>
+      <c r="F85" s="15"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="33"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="9">
         <v>44950</v>
       </c>
-      <c r="B86" s="15">
+      <c r="B86" s="11">
         <v>1</v>
       </c>
       <c r="C86" s="2">
@@ -2203,15 +2999,25 @@
       <c r="D86" s="2">
         <v>0</v>
       </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="12">
+      <c r="E86" s="35">
+        <v>0</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="16"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="9">
         <v>44951</v>
       </c>
-      <c r="B87" s="15">
+      <c r="B87" s="11">
         <v>1</v>
       </c>
       <c r="C87" s="2">
@@ -2220,15 +3026,25 @@
       <c r="D87" s="2">
         <v>0</v>
       </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="12">
+      <c r="E87" s="35">
+        <v>0</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="16"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="9">
         <v>44952</v>
       </c>
-      <c r="B88" s="15">
+      <c r="B88" s="11">
         <v>1</v>
       </c>
       <c r="C88" s="2">
@@ -2237,15 +3053,25 @@
       <c r="D88" s="2">
         <v>0</v>
       </c>
-      <c r="E88" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="12">
+      <c r="E88" s="35">
+        <v>0</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="16"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="9">
         <v>44953</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="12">
         <v>0</v>
       </c>
       <c r="C89" s="2">
@@ -2254,15 +3080,19 @@
       <c r="D89" s="2">
         <v>0</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="12">
+      <c r="E89" s="35">
+        <v>0</v>
+      </c>
+      <c r="F89" s="15"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="16"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="9">
         <v>44954</v>
       </c>
-      <c r="B90" s="16">
+      <c r="B90" s="12">
         <v>0</v>
       </c>
       <c r="C90" s="2">
@@ -2271,15 +3101,19 @@
       <c r="D90" s="2">
         <v>0</v>
       </c>
-      <c r="E90" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="12">
+      <c r="E90" s="35">
+        <v>0</v>
+      </c>
+      <c r="F90" s="15"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="16"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="9">
         <v>44955</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="12">
         <v>0</v>
       </c>
       <c r="C91" s="2">
@@ -2288,15 +3122,19 @@
       <c r="D91" s="2">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="12">
+      <c r="E91" s="35">
+        <v>0</v>
+      </c>
+      <c r="F91" s="15"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="16"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="9">
         <v>44956</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="12">
         <v>0</v>
       </c>
       <c r="C92" s="2">
@@ -2305,15 +3143,19 @@
       <c r="D92" s="2">
         <v>0</v>
       </c>
-      <c r="E92" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="12">
+      <c r="E92" s="35">
+        <v>0</v>
+      </c>
+      <c r="F92" s="15"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="16"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="9">
         <v>44957</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="12">
         <v>0</v>
       </c>
       <c r="C93" s="1">
@@ -2322,15 +3164,25 @@
       <c r="D93" s="2">
         <v>0</v>
       </c>
-      <c r="E93" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="12">
+      <c r="E93" s="35">
+        <v>0</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="16"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="9">
         <v>44958</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="12">
         <v>0</v>
       </c>
       <c r="C94" s="1">
@@ -2339,15 +3191,25 @@
       <c r="D94" s="2">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="12">
+      <c r="E94" s="35">
+        <v>0</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="16"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="9">
         <v>44959</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="12">
         <v>0</v>
       </c>
       <c r="C95" s="1">
@@ -2356,15 +3218,25 @@
       <c r="D95" s="2">
         <v>0</v>
       </c>
-      <c r="E95" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="12">
+      <c r="E95" s="35">
+        <v>0</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="16"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="9">
         <v>44960</v>
       </c>
-      <c r="B96" s="16">
+      <c r="B96" s="12">
         <v>0</v>
       </c>
       <c r="C96" s="2">
@@ -2373,15 +3245,19 @@
       <c r="D96" s="2">
         <v>0</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="12">
+      <c r="E96" s="35">
+        <v>0</v>
+      </c>
+      <c r="F96" s="15"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="16"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="9">
         <v>44961</v>
       </c>
-      <c r="B97" s="16">
+      <c r="B97" s="12">
         <v>0</v>
       </c>
       <c r="C97" s="2">
@@ -2390,15 +3266,19 @@
       <c r="D97" s="2">
         <v>0</v>
       </c>
-      <c r="E97" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="12">
+      <c r="E97" s="35">
+        <v>0</v>
+      </c>
+      <c r="F97" s="15"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="16"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="9">
         <v>44962</v>
       </c>
-      <c r="B98" s="16">
+      <c r="B98" s="12">
         <v>0</v>
       </c>
       <c r="C98" s="2">
@@ -2407,15 +3287,19 @@
       <c r="D98" s="2">
         <v>0</v>
       </c>
-      <c r="E98" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="12">
+      <c r="E98" s="35">
+        <v>0</v>
+      </c>
+      <c r="F98" s="15"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="16"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="9">
         <v>44963</v>
       </c>
-      <c r="B99" s="16">
+      <c r="B99" s="12">
         <v>0</v>
       </c>
       <c r="C99" s="2">
@@ -2424,15 +3308,19 @@
       <c r="D99" s="2">
         <v>0</v>
       </c>
-      <c r="E99" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="12">
+      <c r="E99" s="35">
+        <v>0</v>
+      </c>
+      <c r="F99" s="15"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="16"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="9">
         <v>44964</v>
       </c>
-      <c r="B100" s="16">
+      <c r="B100" s="12">
         <v>0</v>
       </c>
       <c r="C100" s="2">
@@ -2441,15 +3329,25 @@
       <c r="D100" s="1">
         <v>1</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="12">
+      <c r="E100" s="35">
+        <v>0</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="16"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="9">
         <v>44965</v>
       </c>
-      <c r="B101" s="16">
+      <c r="B101" s="12">
         <v>0</v>
       </c>
       <c r="C101" s="2">
@@ -2458,15 +3356,25 @@
       <c r="D101" s="1">
         <v>1</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="12">
+      <c r="E101" s="35">
+        <v>0</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="16"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="9">
         <v>44966</v>
       </c>
-      <c r="B102" s="16">
+      <c r="B102" s="12">
         <v>0</v>
       </c>
       <c r="C102" s="2">
@@ -2475,15 +3383,25 @@
       <c r="D102" s="1">
         <v>1</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="12">
+      <c r="E102" s="35">
+        <v>0</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="16"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="9">
         <v>44967</v>
       </c>
-      <c r="B103" s="16">
+      <c r="B103" s="12">
         <v>0</v>
       </c>
       <c r="C103" s="2">
@@ -2492,15 +3410,19 @@
       <c r="D103" s="2">
         <v>0</v>
       </c>
-      <c r="E103" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="12">
+      <c r="E103" s="35">
+        <v>0</v>
+      </c>
+      <c r="F103" s="15"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="16"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="9">
         <v>44968</v>
       </c>
-      <c r="B104" s="16">
+      <c r="B104" s="12">
         <v>0</v>
       </c>
       <c r="C104" s="2">
@@ -2509,15 +3431,19 @@
       <c r="D104" s="2">
         <v>0</v>
       </c>
-      <c r="E104" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="12">
+      <c r="E104" s="35">
+        <v>0</v>
+      </c>
+      <c r="F104" s="15"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="16"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="9">
         <v>44969</v>
       </c>
-      <c r="B105" s="16">
+      <c r="B105" s="12">
         <v>0</v>
       </c>
       <c r="C105" s="2">
@@ -2526,15 +3452,19 @@
       <c r="D105" s="2">
         <v>0</v>
       </c>
-      <c r="E105" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="12">
+      <c r="E105" s="35">
+        <v>0</v>
+      </c>
+      <c r="F105" s="15"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="16"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="9">
         <v>44970</v>
       </c>
-      <c r="B106" s="16">
+      <c r="B106" s="12">
         <v>0</v>
       </c>
       <c r="C106" s="2">
@@ -2543,16 +3473,20 @@
       <c r="D106" s="2">
         <v>0</v>
       </c>
-      <c r="E106" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="12">
+      <c r="E106" s="35">
+        <v>0</v>
+      </c>
+      <c r="F106" s="15"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="16"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="9">
         <v>44971</v>
       </c>
-      <c r="B107" s="16">
-        <v>0</v>
+      <c r="B107" s="11">
+        <v>1</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -2560,16 +3494,26 @@
       <c r="D107" s="2">
         <v>0</v>
       </c>
-      <c r="E107" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="12">
+      <c r="E107" s="35">
+        <v>0</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="16"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="9">
         <v>44972</v>
       </c>
-      <c r="B108" s="16">
-        <v>0</v>
+      <c r="B108" s="11">
+        <v>1</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -2577,16 +3521,26 @@
       <c r="D108" s="2">
         <v>0</v>
       </c>
-      <c r="E108" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="12">
+      <c r="E108" s="35">
+        <v>0</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="16"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="9">
         <v>44973</v>
       </c>
-      <c r="B109" s="16">
-        <v>0</v>
+      <c r="B109" s="11">
+        <v>1</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -2594,15 +3548,25 @@
       <c r="D109" s="2">
         <v>0</v>
       </c>
-      <c r="E109" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="12">
+      <c r="E109" s="35">
+        <v>0</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="16"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="9">
         <v>44974</v>
       </c>
-      <c r="B110" s="16">
+      <c r="B110" s="12">
         <v>0</v>
       </c>
       <c r="C110" s="2">
@@ -2611,15 +3575,19 @@
       <c r="D110" s="2">
         <v>0</v>
       </c>
-      <c r="E110" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="12">
+      <c r="E110" s="35">
+        <v>0</v>
+      </c>
+      <c r="F110" s="15"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="16"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="9">
         <v>44975</v>
       </c>
-      <c r="B111" s="16">
+      <c r="B111" s="12">
         <v>0</v>
       </c>
       <c r="C111" s="2">
@@ -2628,15 +3596,19 @@
       <c r="D111" s="2">
         <v>0</v>
       </c>
-      <c r="E111" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="12">
+      <c r="E111" s="35">
+        <v>0</v>
+      </c>
+      <c r="F111" s="15"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="16"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="9">
         <v>44976</v>
       </c>
-      <c r="B112" s="16">
+      <c r="B112" s="12">
         <v>0</v>
       </c>
       <c r="C112" s="2">
@@ -2645,15 +3617,19 @@
       <c r="D112" s="2">
         <v>0</v>
       </c>
-      <c r="E112" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="12">
+      <c r="E112" s="35">
+        <v>0</v>
+      </c>
+      <c r="F112" s="15"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="16"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="9">
         <v>44977</v>
       </c>
-      <c r="B113" s="16">
+      <c r="B113" s="12">
         <v>0</v>
       </c>
       <c r="C113" s="2">
@@ -2662,15 +3638,19 @@
       <c r="D113" s="2">
         <v>0</v>
       </c>
-      <c r="E113" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="12">
+      <c r="E113" s="35">
+        <v>0</v>
+      </c>
+      <c r="F113" s="15"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="16"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="9">
         <v>44978</v>
       </c>
-      <c r="B114" s="15">
+      <c r="B114" s="11">
         <v>1</v>
       </c>
       <c r="C114" s="2">
@@ -2679,15 +3659,25 @@
       <c r="D114" s="2">
         <v>0</v>
       </c>
-      <c r="E114" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="12">
+      <c r="E114" s="35">
+        <v>0</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="16"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="9">
         <v>44979</v>
       </c>
-      <c r="B115" s="15">
+      <c r="B115" s="11">
         <v>1</v>
       </c>
       <c r="C115" s="2">
@@ -2696,15 +3686,25 @@
       <c r="D115" s="2">
         <v>0</v>
       </c>
-      <c r="E115" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="12">
+      <c r="E115" s="35">
+        <v>0</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="16"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="9">
         <v>44980</v>
       </c>
-      <c r="B116" s="15">
+      <c r="B116" s="11">
         <v>1</v>
       </c>
       <c r="C116" s="2">
@@ -2713,15 +3713,25 @@
       <c r="D116" s="2">
         <v>0</v>
       </c>
-      <c r="E116" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="12">
+      <c r="E116" s="35">
+        <v>0</v>
+      </c>
+      <c r="F116" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="16"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="9">
         <v>44981</v>
       </c>
-      <c r="B117" s="16">
+      <c r="B117" s="12">
         <v>0</v>
       </c>
       <c r="C117" s="2">
@@ -2730,15 +3740,19 @@
       <c r="D117" s="2">
         <v>0</v>
       </c>
-      <c r="E117" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="12">
+      <c r="E117" s="35">
+        <v>0</v>
+      </c>
+      <c r="F117" s="15"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="16"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="9">
         <v>44982</v>
       </c>
-      <c r="B118" s="16">
+      <c r="B118" s="12">
         <v>0</v>
       </c>
       <c r="C118" s="2">
@@ -2747,15 +3761,19 @@
       <c r="D118" s="2">
         <v>0</v>
       </c>
-      <c r="E118" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="12">
+      <c r="E118" s="35">
+        <v>0</v>
+      </c>
+      <c r="F118" s="15"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="16"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="9">
         <v>44983</v>
       </c>
-      <c r="B119" s="16">
+      <c r="B119" s="12">
         <v>0</v>
       </c>
       <c r="C119" s="2">
@@ -2764,15 +3782,19 @@
       <c r="D119" s="2">
         <v>0</v>
       </c>
-      <c r="E119" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="12">
+      <c r="E119" s="35">
+        <v>0</v>
+      </c>
+      <c r="F119" s="15"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="16"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="9">
         <v>44984</v>
       </c>
-      <c r="B120" s="16">
+      <c r="B120" s="12">
         <v>0</v>
       </c>
       <c r="C120" s="2">
@@ -2781,15 +3803,19 @@
       <c r="D120" s="2">
         <v>0</v>
       </c>
-      <c r="E120" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="12">
+      <c r="E120" s="35">
+        <v>0</v>
+      </c>
+      <c r="F120" s="43"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="16"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="9">
         <v>44985</v>
       </c>
-      <c r="B121" s="16">
+      <c r="B121" s="12">
         <v>0</v>
       </c>
       <c r="C121" s="1">
@@ -2798,15 +3824,25 @@
       <c r="D121" s="2">
         <v>0</v>
       </c>
-      <c r="E121" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="12">
+      <c r="E121" s="35">
+        <v>0</v>
+      </c>
+      <c r="F121" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="16"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="9">
         <v>44986</v>
       </c>
-      <c r="B122" s="16">
+      <c r="B122" s="12">
         <v>0</v>
       </c>
       <c r="C122" s="1">
@@ -2815,15 +3851,25 @@
       <c r="D122" s="2">
         <v>0</v>
       </c>
-      <c r="E122" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="12">
+      <c r="E122" s="35">
+        <v>0</v>
+      </c>
+      <c r="F122" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="16"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="9">
         <v>44987</v>
       </c>
-      <c r="B123" s="16">
+      <c r="B123" s="12">
         <v>0</v>
       </c>
       <c r="C123" s="1">
@@ -2832,15 +3878,25 @@
       <c r="D123" s="2">
         <v>0</v>
       </c>
-      <c r="E123" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="12">
+      <c r="E123" s="35">
+        <v>0</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="16"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="9">
         <v>44988</v>
       </c>
-      <c r="B124" s="16">
+      <c r="B124" s="12">
         <v>0</v>
       </c>
       <c r="C124" s="2">
@@ -2849,15 +3905,19 @@
       <c r="D124" s="2">
         <v>0</v>
       </c>
-      <c r="E124" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="12">
+      <c r="E124" s="35">
+        <v>0</v>
+      </c>
+      <c r="F124" s="15"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="16"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="9">
         <v>44989</v>
       </c>
-      <c r="B125" s="16">
+      <c r="B125" s="12">
         <v>0</v>
       </c>
       <c r="C125" s="2">
@@ -2866,15 +3926,19 @@
       <c r="D125" s="2">
         <v>0</v>
       </c>
-      <c r="E125" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="12">
+      <c r="E125" s="35">
+        <v>0</v>
+      </c>
+      <c r="F125" s="15"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="16"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="9">
         <v>44990</v>
       </c>
-      <c r="B126" s="16">
+      <c r="B126" s="12">
         <v>0</v>
       </c>
       <c r="C126" s="2">
@@ -2883,15 +3947,19 @@
       <c r="D126" s="2">
         <v>0</v>
       </c>
-      <c r="E126" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="12">
+      <c r="E126" s="35">
+        <v>0</v>
+      </c>
+      <c r="F126" s="15"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="16"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="9">
         <v>44991</v>
       </c>
-      <c r="B127" s="16">
+      <c r="B127" s="12">
         <v>0</v>
       </c>
       <c r="C127" s="2">
@@ -2900,15 +3968,19 @@
       <c r="D127" s="2">
         <v>0</v>
       </c>
-      <c r="E127" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="12">
+      <c r="E127" s="35">
+        <v>0</v>
+      </c>
+      <c r="F127" s="15"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="16"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="9">
         <v>44992</v>
       </c>
-      <c r="B128" s="16">
+      <c r="B128" s="12">
         <v>0</v>
       </c>
       <c r="C128" s="2">
@@ -2917,15 +3989,25 @@
       <c r="D128" s="1">
         <v>1</v>
       </c>
-      <c r="E128" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="12">
+      <c r="E128" s="35">
+        <v>0</v>
+      </c>
+      <c r="F128" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" s="16"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="9">
         <v>44993</v>
       </c>
-      <c r="B129" s="16">
+      <c r="B129" s="12">
         <v>0</v>
       </c>
       <c r="C129" s="2">
@@ -2934,15 +4016,25 @@
       <c r="D129" s="1">
         <v>1</v>
       </c>
-      <c r="E129" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="12">
+      <c r="E129" s="35">
+        <v>0</v>
+      </c>
+      <c r="F129" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G129" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" s="16"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="9">
         <v>44994</v>
       </c>
-      <c r="B130" s="16">
+      <c r="B130" s="12">
         <v>0</v>
       </c>
       <c r="C130" s="2">
@@ -2951,15 +4043,25 @@
       <c r="D130" s="1">
         <v>1</v>
       </c>
-      <c r="E130" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="12">
+      <c r="E130" s="35">
+        <v>0</v>
+      </c>
+      <c r="F130" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="16"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="9">
         <v>44995</v>
       </c>
-      <c r="B131" s="16">
+      <c r="B131" s="12">
         <v>0</v>
       </c>
       <c r="C131" s="2">
@@ -2968,15 +4070,19 @@
       <c r="D131" s="2">
         <v>0</v>
       </c>
-      <c r="E131" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="12">
+      <c r="E131" s="35">
+        <v>0</v>
+      </c>
+      <c r="F131" s="15"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="16"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="9">
         <v>44996</v>
       </c>
-      <c r="B132" s="16">
+      <c r="B132" s="12">
         <v>0</v>
       </c>
       <c r="C132" s="2">
@@ -2985,15 +4091,19 @@
       <c r="D132" s="2">
         <v>0</v>
       </c>
-      <c r="E132" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="12">
+      <c r="E132" s="35">
+        <v>0</v>
+      </c>
+      <c r="F132" s="15"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="16"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="9">
         <v>44997</v>
       </c>
-      <c r="B133" s="16">
+      <c r="B133" s="12">
         <v>0</v>
       </c>
       <c r="C133" s="2">
@@ -3002,15 +4112,19 @@
       <c r="D133" s="2">
         <v>0</v>
       </c>
-      <c r="E133" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="12">
+      <c r="E133" s="35">
+        <v>0</v>
+      </c>
+      <c r="F133" s="15"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="16"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="9">
         <v>44998</v>
       </c>
-      <c r="B134" s="16">
+      <c r="B134" s="12">
         <v>0</v>
       </c>
       <c r="C134" s="2">
@@ -3019,16 +4133,20 @@
       <c r="D134" s="2">
         <v>0</v>
       </c>
-      <c r="E134" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="12">
+      <c r="E134" s="35">
+        <v>0</v>
+      </c>
+      <c r="F134" s="15"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="16"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="9">
         <v>44999</v>
       </c>
-      <c r="B135" s="16">
-        <v>0</v>
+      <c r="B135" s="11">
+        <v>1</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -3036,16 +4154,26 @@
       <c r="D135" s="2">
         <v>0</v>
       </c>
-      <c r="E135" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="12">
+      <c r="E135" s="35">
+        <v>0</v>
+      </c>
+      <c r="F135" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" s="16"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="9">
         <v>45000</v>
       </c>
-      <c r="B136" s="16">
-        <v>0</v>
+      <c r="B136" s="11">
+        <v>1</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -3053,16 +4181,26 @@
       <c r="D136" s="2">
         <v>0</v>
       </c>
-      <c r="E136" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="12">
+      <c r="E136" s="35">
+        <v>0</v>
+      </c>
+      <c r="F136" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" s="16"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="9">
         <v>45001</v>
       </c>
-      <c r="B137" s="16">
-        <v>0</v>
+      <c r="B137" s="11">
+        <v>1</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -3070,15 +4208,25 @@
       <c r="D137" s="2">
         <v>0</v>
       </c>
-      <c r="E137" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="12">
+      <c r="E137" s="35">
+        <v>0</v>
+      </c>
+      <c r="F137" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" s="16"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="9">
         <v>45002</v>
       </c>
-      <c r="B138" s="16">
+      <c r="B138" s="12">
         <v>0</v>
       </c>
       <c r="C138" s="2">
@@ -3087,15 +4235,19 @@
       <c r="D138" s="2">
         <v>0</v>
       </c>
-      <c r="E138" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="12">
+      <c r="E138" s="35">
+        <v>0</v>
+      </c>
+      <c r="F138" s="43"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="16"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="9">
         <v>45003</v>
       </c>
-      <c r="B139" s="16">
+      <c r="B139" s="12">
         <v>0</v>
       </c>
       <c r="C139" s="2">
@@ -3104,15 +4256,19 @@
       <c r="D139" s="2">
         <v>0</v>
       </c>
-      <c r="E139" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="12">
+      <c r="E139" s="35">
+        <v>0</v>
+      </c>
+      <c r="F139" s="15"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="16"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="9">
         <v>45004</v>
       </c>
-      <c r="B140" s="16">
+      <c r="B140" s="12">
         <v>0</v>
       </c>
       <c r="C140" s="2">
@@ -3121,15 +4277,19 @@
       <c r="D140" s="2">
         <v>0</v>
       </c>
-      <c r="E140" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="12">
+      <c r="E140" s="35">
+        <v>0</v>
+      </c>
+      <c r="F140" s="15"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="16"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="9">
         <v>45005</v>
       </c>
-      <c r="B141" s="16">
+      <c r="B141" s="12">
         <v>0</v>
       </c>
       <c r="C141" s="2">
@@ -3138,15 +4298,19 @@
       <c r="D141" s="2">
         <v>0</v>
       </c>
-      <c r="E141" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="12">
+      <c r="E141" s="35">
+        <v>0</v>
+      </c>
+      <c r="F141" s="15"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="16"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="9">
         <v>45006</v>
       </c>
-      <c r="B142" s="15">
+      <c r="B142" s="11">
         <v>1</v>
       </c>
       <c r="C142" s="2">
@@ -3155,15 +4319,25 @@
       <c r="D142" s="2">
         <v>0</v>
       </c>
-      <c r="E142" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="12">
+      <c r="E142" s="35">
+        <v>0</v>
+      </c>
+      <c r="F142" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H142" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" s="16"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="9">
         <v>45007</v>
       </c>
-      <c r="B143" s="15">
+      <c r="B143" s="11">
         <v>1</v>
       </c>
       <c r="C143" s="2">
@@ -3172,15 +4346,25 @@
       <c r="D143" s="2">
         <v>0</v>
       </c>
-      <c r="E143" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="12">
+      <c r="E143" s="35">
+        <v>0</v>
+      </c>
+      <c r="F143" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H143" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" s="16"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="9">
         <v>45008</v>
       </c>
-      <c r="B144" s="15">
+      <c r="B144" s="11">
         <v>1</v>
       </c>
       <c r="C144" s="2">
@@ -3189,15 +4373,25 @@
       <c r="D144" s="2">
         <v>0</v>
       </c>
-      <c r="E144" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="12">
+      <c r="E144" s="35">
+        <v>0</v>
+      </c>
+      <c r="F144" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H144" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144" s="16"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A145" s="9">
         <v>45009</v>
       </c>
-      <c r="B145" s="16">
+      <c r="B145" s="12">
         <v>0</v>
       </c>
       <c r="C145" s="2">
@@ -3206,15 +4400,19 @@
       <c r="D145" s="2">
         <v>0</v>
       </c>
-      <c r="E145" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="12">
+      <c r="E145" s="35">
+        <v>0</v>
+      </c>
+      <c r="F145" s="15"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="16"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A146" s="9">
         <v>45010</v>
       </c>
-      <c r="B146" s="16">
+      <c r="B146" s="12">
         <v>0</v>
       </c>
       <c r="C146" s="2">
@@ -3223,15 +4421,19 @@
       <c r="D146" s="2">
         <v>0</v>
       </c>
-      <c r="E146" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="12">
+      <c r="E146" s="35">
+        <v>0</v>
+      </c>
+      <c r="F146" s="15"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="16"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A147" s="9">
         <v>45011</v>
       </c>
-      <c r="B147" s="16">
+      <c r="B147" s="12">
         <v>0</v>
       </c>
       <c r="C147" s="2">
@@ -3240,15 +4442,19 @@
       <c r="D147" s="2">
         <v>0</v>
       </c>
-      <c r="E147" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="12">
+      <c r="E147" s="35">
+        <v>0</v>
+      </c>
+      <c r="F147" s="43"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="16"/>
+    </row>
+    <row r="148" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="9">
         <v>45012</v>
       </c>
-      <c r="B148" s="16">
+      <c r="B148" s="12">
         <v>0</v>
       </c>
       <c r="C148" s="2">
@@ -3257,15 +4463,19 @@
       <c r="D148" s="2">
         <v>0</v>
       </c>
-      <c r="E148" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="12">
+      <c r="E148" s="35">
+        <v>0</v>
+      </c>
+      <c r="F148" s="43"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="16"/>
+    </row>
+    <row r="149" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="9">
         <v>45013</v>
       </c>
-      <c r="B149" s="16">
+      <c r="B149" s="12">
         <v>0</v>
       </c>
       <c r="C149" s="2">
@@ -3274,15 +4484,26 @@
       <c r="D149" s="2">
         <v>0</v>
       </c>
-      <c r="E149" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="12">
+      <c r="E149" s="35">
+        <v>0</v>
+      </c>
+      <c r="F149" s="15"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="16"/>
+      <c r="K149" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L149" s="29">
+        <f>COUNTIF(F1:F152,"None")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A150" s="9">
         <v>45014</v>
       </c>
-      <c r="B150" s="16">
+      <c r="B150" s="12">
         <v>0</v>
       </c>
       <c r="C150" s="1">
@@ -3291,15 +4512,32 @@
       <c r="D150" s="2">
         <v>0</v>
       </c>
-      <c r="E150" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="12">
+      <c r="E150" s="35">
+        <v>0</v>
+      </c>
+      <c r="F150" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I150" s="16"/>
+      <c r="K150" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L150" s="29">
+        <f>COUNTIF(F2:F153,"Arevalo")</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="9">
         <v>45015</v>
       </c>
-      <c r="B151" s="16">
+      <c r="B151" s="12">
         <v>0</v>
       </c>
       <c r="C151" s="1">
@@ -3308,52 +4546,392 @@
       <c r="D151" s="2">
         <v>0</v>
       </c>
-      <c r="E151" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="12">
+      <c r="E151" s="35">
+        <v>0</v>
+      </c>
+      <c r="F151" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I151" s="16"/>
+      <c r="K151" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L151" s="17">
+        <f>COUNTIF(F2:F153,"Leiva")</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="9">
         <v>45016</v>
       </c>
-      <c r="B152" s="17">
-        <v>0</v>
-      </c>
-      <c r="C152" s="1">
-        <v>1</v>
-      </c>
-      <c r="D152" s="18">
-        <v>0</v>
-      </c>
-      <c r="E152" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="20" t="s">
+      <c r="B152" s="22">
+        <v>0</v>
+      </c>
+      <c r="C152" s="23">
+        <v>1</v>
+      </c>
+      <c r="D152" s="24">
+        <v>0</v>
+      </c>
+      <c r="E152" s="37">
+        <v>0</v>
+      </c>
+      <c r="F152" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I152" s="16"/>
+      <c r="L152" s="31">
+        <f>SUM(L149:L151)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B153" s="21">
+      <c r="B153" s="25">
         <f>SUM(B2:B152)</f>
-        <v>18</v>
-      </c>
-      <c r="C153" s="13">
+        <v>33</v>
+      </c>
+      <c r="C153" s="26">
         <f>SUM(C2:C152)</f>
         <v>18</v>
       </c>
-      <c r="D153" s="13">
+      <c r="D153" s="27">
         <f>SUM(D2:D152)</f>
         <v>15</v>
       </c>
-      <c r="E153" s="22">
+      <c r="E153" s="38">
         <f>SUM(E2:E152)</f>
-        <v>15</v>
-      </c>
-      <c r="F153" s="10">
-        <f>SUM(B153:E153)</f>
-        <v>66</v>
-      </c>
-      <c r="G153" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="F153" s="18"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="17"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F155" s="21"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F156" s="21"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F157" s="7"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+    </row>
+    <row r="161" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+    </row>
+    <row r="162" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+    </row>
+    <row r="163" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+    </row>
+    <row r="164" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F164" s="21"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="21"/>
+    </row>
+    <row r="165" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="21"/>
+    </row>
+    <row r="166" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+    </row>
+    <row r="167" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+    </row>
+    <row r="168" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+    </row>
+    <row r="169" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+    </row>
+    <row r="170" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+    </row>
+    <row r="171" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+    </row>
+    <row r="172" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+    </row>
+    <row r="173" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F173" s="21"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="21"/>
+    </row>
+    <row r="174" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F174" s="21"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="21"/>
+    </row>
+    <row r="175" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+    </row>
+    <row r="176" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+    </row>
+    <row r="177" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+    </row>
+    <row r="178" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+    </row>
+    <row r="179" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+    </row>
+    <row r="180" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+    </row>
+    <row r="181" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+    </row>
+    <row r="182" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F182" s="21"/>
+      <c r="G182" s="21"/>
+      <c r="H182" s="21"/>
+    </row>
+    <row r="183" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F183" s="21"/>
+      <c r="G183" s="21"/>
+      <c r="H183" s="21"/>
+    </row>
+    <row r="184" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+    </row>
+    <row r="185" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+    </row>
+    <row r="186" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+    </row>
+    <row r="187" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+    </row>
+    <row r="188" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+    </row>
+    <row r="189" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+    </row>
+    <row r="190" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+    </row>
+    <row r="191" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F191" s="21"/>
+      <c r="G191" s="21"/>
+      <c r="H191" s="21"/>
+    </row>
+    <row r="192" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F192" s="21"/>
+      <c r="G192" s="21"/>
+      <c r="H192" s="21"/>
+    </row>
+    <row r="193" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+    </row>
+    <row r="194" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+    </row>
+    <row r="195" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+    </row>
+    <row r="196" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+    </row>
+    <row r="197" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="7"/>
+    </row>
+    <row r="198" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="7"/>
+    </row>
+    <row r="199" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+    </row>
+    <row r="200" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F200" s="21"/>
+      <c r="G200" s="21"/>
+      <c r="H200" s="21"/>
+    </row>
+    <row r="201" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F201" s="21"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21"/>
+    </row>
+    <row r="202" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F202" s="7"/>
+      <c r="G202" s="7"/>
+      <c r="H202" s="7"/>
+    </row>
+    <row r="203" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F203" s="7"/>
+      <c r="G203" s="7"/>
+      <c r="H203" s="7"/>
+    </row>
+    <row r="204" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F204" s="7"/>
+      <c r="G204" s="7"/>
+      <c r="H204" s="7"/>
+    </row>
+    <row r="205" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F205" s="7"/>
+      <c r="G205" s="7"/>
+      <c r="H205" s="7"/>
+    </row>
+    <row r="206" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F206" s="7"/>
+      <c r="G206" s="7"/>
+      <c r="H206" s="7"/>
+    </row>
+    <row r="207" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F207" s="7"/>
+      <c r="G207" s="7"/>
+      <c r="H207" s="7"/>
+    </row>
+    <row r="208" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F208" s="7"/>
+      <c r="G208" s="7"/>
+      <c r="H208" s="7"/>
+    </row>
+    <row r="209" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F209" s="7"/>
+      <c r="G209" s="21"/>
+      <c r="H209" s="21"/>
+    </row>
+    <row r="210" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F210" s="7"/>
+      <c r="G210" s="21"/>
+      <c r="H210" s="21"/>
+    </row>
+    <row r="211" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F211" s="7"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
+    </row>
+    <row r="212" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F212" s="7"/>
+      <c r="G212" s="7"/>
+      <c r="H212" s="7"/>
+    </row>
+    <row r="213" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F213" s="7"/>
+      <c r="G213" s="7"/>
+      <c r="H213" s="7"/>
+    </row>
+    <row r="214" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F214" s="7"/>
+      <c r="G214" s="7"/>
+      <c r="H214" s="7"/>
+    </row>
+    <row r="215" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F215" s="7"/>
+      <c r="G215" s="7"/>
+      <c r="H215" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/calendar_chilean_2022B.xlsx
+++ b/calendar_chilean_2022B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed268546/Dropbox/Mac/Documents/codes/SPOCK_chilean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC5493A-4542-1945-9CC4-A6ADF8C42552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADB8223-AA32-6D45-83DA-798BE28C6187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{29A8BF1E-0110-C24B-9407-C010B9269ACA}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="35840" windowHeight="21100" xr2:uid="{29A8BF1E-0110-C24B-9407-C010B9269ACA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -94,14 +98,32 @@
     <t>sent 2 weeks in advance</t>
   </si>
   <si>
-    <t>sent 1 weeks in advance</t>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Weather loss</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
+    <t>weather loss</t>
+  </si>
+  <si>
+    <t>CN2022B-66</t>
+  </si>
+  <si>
+    <t>Program ID</t>
+  </si>
+  <si>
+    <t>CN2022B-31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,8 +146,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +190,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -527,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -580,9 +620,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -608,9 +645,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,16 +672,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -964,20 +1025,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD27D292-CBD1-CA4F-A514-6D8CE062AE5E}">
-  <dimension ref="A1:L215"/>
+  <dimension ref="A1:M215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135:H138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K158" sqref="K158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="25.1640625" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -993,20 +1056,23 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>44866</v>
       </c>
@@ -1019,21 +1085,26 @@
       <c r="D2" s="6">
         <v>0</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="32">
         <v>0</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>44867</v>
       </c>
@@ -1046,21 +1117,26 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="33">
         <v>0</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="33"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>44868</v>
       </c>
@@ -1073,21 +1149,26 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="33">
         <v>0</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="33"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>44869</v>
       </c>
@@ -1100,15 +1181,16 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="33">
         <v>0</v>
       </c>
       <c r="F5" s="15"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>44870</v>
       </c>
@@ -1121,15 +1203,16 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="33">
         <v>0</v>
       </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>44871</v>
       </c>
@@ -1142,15 +1225,16 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="33">
         <v>0</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>44872</v>
       </c>
@@ -1163,15 +1247,16 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="33">
         <v>0</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>44873</v>
       </c>
@@ -1184,21 +1269,26 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="33">
         <v>0</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>44874</v>
       </c>
@@ -1211,21 +1301,26 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="33">
         <v>0</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>44875</v>
       </c>
@@ -1238,21 +1333,26 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="33">
         <v>0</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>44876</v>
       </c>
@@ -1265,15 +1365,16 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="35">
-        <v>0</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E12" s="33">
+        <v>0</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>44877</v>
       </c>
@@ -1286,15 +1387,16 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="33">
         <v>0</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="33"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>44878</v>
       </c>
@@ -1307,15 +1409,16 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="35">
-        <v>0</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="33"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E14" s="33">
+        <v>0</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>44879</v>
       </c>
@@ -1328,15 +1431,16 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="33">
         <v>0</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>44880</v>
       </c>
@@ -1349,21 +1453,26 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="33">
         <v>0</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>44881</v>
       </c>
@@ -1376,21 +1485,26 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="33">
         <v>0</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>44882</v>
       </c>
@@ -1403,21 +1517,26 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="33">
         <v>0</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>44883</v>
       </c>
@@ -1430,15 +1549,16 @@
       <c r="D19" s="2">
         <v>0</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="33">
         <v>0</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>44884</v>
       </c>
@@ -1451,15 +1571,16 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="33">
         <v>0</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="33"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>44885</v>
       </c>
@@ -1472,15 +1593,16 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-      <c r="E21" s="35">
-        <v>0</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="33"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E21" s="33">
+        <v>0</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>44886</v>
       </c>
@@ -1493,19 +1615,20 @@
       <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="E22" s="35">
-        <v>0</v>
-      </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="33"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E22" s="33">
+        <v>0</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>44887</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="34">
         <v>1</v>
       </c>
       <c r="C23" s="2">
@@ -1514,25 +1637,30 @@
       <c r="D23" s="2">
         <v>0</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="33">
         <v>0</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>44888</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="34">
         <v>1</v>
       </c>
       <c r="C24" s="2">
@@ -1541,25 +1669,30 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="33">
         <v>0</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="45" t="s">
+      <c r="G24" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>44889</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="34">
         <v>1</v>
       </c>
       <c r="C25" s="2">
@@ -1568,21 +1701,26 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="33">
         <v>0</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>44890</v>
       </c>
@@ -1595,15 +1733,16 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="33">
         <v>0</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>44891</v>
       </c>
@@ -1616,15 +1755,16 @@
       <c r="D27" s="2">
         <v>0</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="33">
         <v>0</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="16"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>44892</v>
       </c>
@@ -1637,15 +1777,16 @@
       <c r="D28" s="2">
         <v>0</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="33">
         <v>0</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>44893</v>
       </c>
@@ -1658,15 +1799,16 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="33">
         <v>0</v>
       </c>
       <c r="F29" s="15"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="33"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>44894</v>
       </c>
@@ -1679,21 +1821,26 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="33">
         <v>0</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>44895</v>
       </c>
@@ -1706,21 +1853,26 @@
       <c r="D31" s="2">
         <v>0</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="33">
         <v>0</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>44896</v>
       </c>
@@ -1733,21 +1885,26 @@
       <c r="D32" s="2">
         <v>0</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="33">
         <v>0</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="45" t="s">
+      <c r="G32" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>44897</v>
       </c>
@@ -1760,15 +1917,16 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="33">
         <v>0</v>
       </c>
       <c r="F33" s="15"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="16"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>44898</v>
       </c>
@@ -1781,15 +1939,16 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="33">
         <v>0</v>
       </c>
       <c r="F34" s="15"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="16"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>44899</v>
       </c>
@@ -1802,15 +1961,16 @@
       <c r="D35" s="2">
         <v>0</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="33">
         <v>0</v>
       </c>
       <c r="F35" s="15"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="16"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>44900</v>
       </c>
@@ -1823,15 +1983,16 @@
       <c r="D36" s="2">
         <v>0</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="33">
         <v>0</v>
       </c>
       <c r="F36" s="15"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="16"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>44901</v>
       </c>
@@ -1844,21 +2005,26 @@
       <c r="D37" s="2">
         <v>0</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="33">
         <v>0</v>
       </c>
       <c r="F37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="44" t="s">
+      <c r="G37" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="16"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>44902</v>
       </c>
@@ -1871,21 +2037,26 @@
       <c r="D38" s="2">
         <v>0</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="33">
         <v>0</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="44" t="s">
+      <c r="G38" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H38" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="33"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>44903</v>
       </c>
@@ -1898,21 +2069,26 @@
       <c r="D39" s="2">
         <v>0</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="33">
         <v>0</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="44" t="s">
+      <c r="G39" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="33"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>44904</v>
       </c>
@@ -1925,15 +2101,16 @@
       <c r="D40" s="2">
         <v>0</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="33">
         <v>0</v>
       </c>
       <c r="F40" s="15"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="33"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="31"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>44905</v>
       </c>
@@ -1946,15 +2123,16 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="33">
         <v>0</v>
       </c>
       <c r="F41" s="15"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="16"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>44906</v>
       </c>
@@ -1967,15 +2145,16 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="33">
         <v>0</v>
       </c>
       <c r="F42" s="15"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="16"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>44907</v>
       </c>
@@ -1988,15 +2167,16 @@
       <c r="D43" s="2">
         <v>0</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="33">
         <v>0</v>
       </c>
       <c r="F43" s="15"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="16"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>44908</v>
       </c>
@@ -2009,21 +2189,26 @@
       <c r="D44" s="1">
         <v>1</v>
       </c>
-      <c r="E44" s="35">
+      <c r="E44" s="33">
         <v>0</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="45" t="s">
+      <c r="G44" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="16"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>44909</v>
       </c>
@@ -2036,21 +2221,26 @@
       <c r="D45" s="1">
         <v>1</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="33">
         <v>0</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="45" t="s">
+      <c r="G45" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="16"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>44910</v>
       </c>
@@ -2063,21 +2253,26 @@
       <c r="D46" s="1">
         <v>1</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="33">
         <v>0</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="45" t="s">
+      <c r="G46" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="16"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>44911</v>
       </c>
@@ -2090,15 +2285,16 @@
       <c r="D47" s="2">
         <v>0</v>
       </c>
-      <c r="E47" s="35">
+      <c r="E47" s="33">
         <v>0</v>
       </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="33"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="31"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>44912</v>
       </c>
@@ -2111,15 +2307,16 @@
       <c r="D48" s="2">
         <v>0</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="33">
         <v>0</v>
       </c>
       <c r="F48" s="15"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="33"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="31"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>44913</v>
       </c>
@@ -2132,15 +2329,16 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E49" s="33">
         <v>0</v>
       </c>
       <c r="F49" s="15"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="33"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="31"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>44914</v>
       </c>
@@ -2153,15 +2351,16 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-      <c r="E50" s="35">
+      <c r="E50" s="33">
         <v>0</v>
       </c>
       <c r="F50" s="15"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="16"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="16"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>44915</v>
       </c>
@@ -2174,21 +2373,26 @@
       <c r="D51" s="2">
         <v>0</v>
       </c>
-      <c r="E51" s="35">
+      <c r="E51" s="33">
         <v>0</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="45" t="s">
+      <c r="G51" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H51" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="16"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>44916</v>
       </c>
@@ -2201,21 +2405,26 @@
       <c r="D52" s="2">
         <v>0</v>
       </c>
-      <c r="E52" s="35">
+      <c r="E52" s="33">
         <v>0</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="45" t="s">
+      <c r="G52" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="16"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>44917</v>
       </c>
@@ -2228,21 +2437,26 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="35">
+      <c r="E53" s="33">
         <v>0</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="45" t="s">
+      <c r="G53" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="16"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>44918</v>
       </c>
@@ -2255,15 +2469,16 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="35">
+      <c r="E54" s="33">
         <v>0</v>
       </c>
       <c r="F54" s="15"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="16"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>44919</v>
       </c>
@@ -2276,15 +2491,16 @@
       <c r="D55" s="2">
         <v>0</v>
       </c>
-      <c r="E55" s="35">
+      <c r="E55" s="33">
         <v>0</v>
       </c>
       <c r="F55" s="15"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="16"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>44920</v>
       </c>
@@ -2297,15 +2513,16 @@
       <c r="D56" s="2">
         <v>0</v>
       </c>
-      <c r="E56" s="35">
+      <c r="E56" s="33">
         <v>0</v>
       </c>
       <c r="F56" s="15"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="33"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="31"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>44921</v>
       </c>
@@ -2318,15 +2535,16 @@
       <c r="D57" s="2">
         <v>0</v>
       </c>
-      <c r="E57" s="35">
+      <c r="E57" s="33">
         <v>0</v>
       </c>
       <c r="F57" s="15"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="33"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="31"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>44922</v>
       </c>
@@ -2339,21 +2557,26 @@
       <c r="D58" s="2">
         <v>0</v>
       </c>
-      <c r="E58" s="35">
+      <c r="E58" s="33">
         <v>0</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="33"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G58" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>44923</v>
       </c>
@@ -2366,21 +2589,26 @@
       <c r="D59" s="2">
         <v>0</v>
       </c>
-      <c r="E59" s="35">
+      <c r="E59" s="33">
         <v>0</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G59" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="16"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G59" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>44924</v>
       </c>
@@ -2393,21 +2621,26 @@
       <c r="D60" s="2">
         <v>0</v>
       </c>
-      <c r="E60" s="35">
+      <c r="E60" s="33">
         <v>0</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G60" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="16"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G60" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>44925</v>
       </c>
@@ -2420,15 +2653,16 @@
       <c r="D61" s="2">
         <v>0</v>
       </c>
-      <c r="E61" s="35">
+      <c r="E61" s="33">
         <v>0</v>
       </c>
       <c r="F61" s="15"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="16"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="16"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>44926</v>
       </c>
@@ -2441,15 +2675,16 @@
       <c r="D62" s="2">
         <v>0</v>
       </c>
-      <c r="E62" s="35">
+      <c r="E62" s="33">
         <v>0</v>
       </c>
       <c r="F62" s="15"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="16"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="16"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>44927</v>
       </c>
@@ -2462,15 +2697,16 @@
       <c r="D63" s="2">
         <v>0</v>
       </c>
-      <c r="E63" s="35">
+      <c r="E63" s="33">
         <v>0</v>
       </c>
       <c r="F63" s="15"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="16"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="16"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>44928</v>
       </c>
@@ -2483,15 +2719,16 @@
       <c r="D64" s="2">
         <v>0</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="33">
         <v>0</v>
       </c>
       <c r="F64" s="15"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="16"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="16"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>44929</v>
       </c>
@@ -2504,21 +2741,26 @@
       <c r="D65" s="2">
         <v>0</v>
       </c>
-      <c r="E65" s="35">
+      <c r="E65" s="33">
         <v>0</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G65" s="44" t="s">
+      <c r="G65" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H65" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="33"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>44930</v>
       </c>
@@ -2531,21 +2773,26 @@
       <c r="D66" s="2">
         <v>0</v>
       </c>
-      <c r="E66" s="35">
+      <c r="E66" s="33">
         <v>0</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G66" s="44" t="s">
+      <c r="G66" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H66" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66" s="33"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
         <v>44931</v>
       </c>
@@ -2558,21 +2805,26 @@
       <c r="D67" s="2">
         <v>0</v>
       </c>
-      <c r="E67" s="35">
+      <c r="E67" s="33">
         <v>0</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G67" s="44" t="s">
+      <c r="G67" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H67" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I67" s="33"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>44932</v>
       </c>
@@ -2585,15 +2837,16 @@
       <c r="D68" s="2">
         <v>0</v>
       </c>
-      <c r="E68" s="35">
+      <c r="E68" s="33">
         <v>0</v>
       </c>
       <c r="F68" s="15"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="16"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="16"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>44933</v>
       </c>
@@ -2606,15 +2859,16 @@
       <c r="D69" s="2">
         <v>0</v>
       </c>
-      <c r="E69" s="35">
+      <c r="E69" s="33">
         <v>0</v>
       </c>
       <c r="F69" s="15"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="16"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="16"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>44934</v>
       </c>
@@ -2627,15 +2881,16 @@
       <c r="D70" s="2">
         <v>0</v>
       </c>
-      <c r="E70" s="35">
+      <c r="E70" s="33">
         <v>0</v>
       </c>
       <c r="F70" s="15"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="16"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="16"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>44935</v>
       </c>
@@ -2648,15 +2903,16 @@
       <c r="D71" s="2">
         <v>0</v>
       </c>
-      <c r="E71" s="35">
+      <c r="E71" s="33">
         <v>0</v>
       </c>
       <c r="F71" s="15"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="16"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="16"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>44936</v>
       </c>
@@ -2669,21 +2925,26 @@
       <c r="D72" s="1">
         <v>1</v>
       </c>
-      <c r="E72" s="35">
+      <c r="E72" s="33">
         <v>0</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G72" s="44" t="s">
+      <c r="G72" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H72" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="16"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>44937</v>
       </c>
@@ -2696,21 +2957,26 @@
       <c r="D73" s="1">
         <v>1</v>
       </c>
-      <c r="E73" s="35">
+      <c r="E73" s="33">
         <v>0</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G73" s="44" t="s">
+      <c r="G73" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H73" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="16"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>44938</v>
       </c>
@@ -2723,21 +2989,26 @@
       <c r="D74" s="1">
         <v>1</v>
       </c>
-      <c r="E74" s="35">
+      <c r="E74" s="33">
         <v>0</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G74" s="44" t="s">
+      <c r="G74" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H74" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I74" s="33"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>44939</v>
       </c>
@@ -2750,15 +3021,16 @@
       <c r="D75" s="2">
         <v>0</v>
       </c>
-      <c r="E75" s="35">
+      <c r="E75" s="33">
         <v>0</v>
       </c>
       <c r="F75" s="15"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="33"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="31"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>44940</v>
       </c>
@@ -2771,15 +3043,16 @@
       <c r="D76" s="2">
         <v>0</v>
       </c>
-      <c r="E76" s="35">
+      <c r="E76" s="33">
         <v>0</v>
       </c>
       <c r="F76" s="15"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="33"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="31"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>44941</v>
       </c>
@@ -2792,15 +3065,16 @@
       <c r="D77" s="2">
         <v>0</v>
       </c>
-      <c r="E77" s="35">
+      <c r="E77" s="33">
         <v>0</v>
       </c>
       <c r="F77" s="15"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="16"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="16"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
         <v>44942</v>
       </c>
@@ -2813,15 +3087,16 @@
       <c r="D78" s="2">
         <v>0</v>
       </c>
-      <c r="E78" s="35">
+      <c r="E78" s="33">
         <v>0</v>
       </c>
       <c r="F78" s="15"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="16"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="16"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>44943</v>
       </c>
@@ -2834,21 +3109,26 @@
       <c r="D79" s="2">
         <v>0</v>
       </c>
-      <c r="E79" s="35">
+      <c r="E79" s="33">
         <v>0</v>
       </c>
       <c r="F79" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G79" s="44" t="s">
+      <c r="G79" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H79" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="16"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>44944</v>
       </c>
@@ -2861,21 +3141,26 @@
       <c r="D80" s="2">
         <v>0</v>
       </c>
-      <c r="E80" s="35">
+      <c r="E80" s="33">
         <v>0</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G80" s="44" t="s">
+      <c r="G80" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H80" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80" s="16"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>44945</v>
       </c>
@@ -2888,21 +3173,26 @@
       <c r="D81" s="2">
         <v>0</v>
       </c>
-      <c r="E81" s="35">
+      <c r="E81" s="33">
         <v>0</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G81" s="44" t="s">
+      <c r="G81" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H81" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="16"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>44946</v>
       </c>
@@ -2915,15 +3205,16 @@
       <c r="D82" s="2">
         <v>0</v>
       </c>
-      <c r="E82" s="35">
+      <c r="E82" s="33">
         <v>0</v>
       </c>
       <c r="F82" s="15"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="16"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="16"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>44947</v>
       </c>
@@ -2936,15 +3227,16 @@
       <c r="D83" s="2">
         <v>0</v>
       </c>
-      <c r="E83" s="35">
+      <c r="E83" s="33">
         <v>0</v>
       </c>
       <c r="F83" s="15"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="33"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="31"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>44948</v>
       </c>
@@ -2957,15 +3249,16 @@
       <c r="D84" s="2">
         <v>0</v>
       </c>
-      <c r="E84" s="35">
+      <c r="E84" s="33">
         <v>0</v>
       </c>
       <c r="F84" s="15"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="33"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="31"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>44949</v>
       </c>
@@ -2978,15 +3271,16 @@
       <c r="D85" s="2">
         <v>0</v>
       </c>
-      <c r="E85" s="35">
+      <c r="E85" s="33">
         <v>0</v>
       </c>
       <c r="F85" s="15"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="33"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="31"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>44950</v>
       </c>
@@ -2999,21 +3293,26 @@
       <c r="D86" s="2">
         <v>0</v>
       </c>
-      <c r="E86" s="35">
+      <c r="E86" s="33">
         <v>0</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G86" s="44" t="s">
+      <c r="G86" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H86" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" s="16"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>44951</v>
       </c>
@@ -3026,21 +3325,26 @@
       <c r="D87" s="2">
         <v>0</v>
       </c>
-      <c r="E87" s="35">
+      <c r="E87" s="33">
         <v>0</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G87" s="44" t="s">
+      <c r="G87" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H87" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I87" s="16"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>44952</v>
       </c>
@@ -3053,21 +3357,26 @@
       <c r="D88" s="2">
         <v>0</v>
       </c>
-      <c r="E88" s="35">
+      <c r="E88" s="33">
         <v>0</v>
       </c>
       <c r="F88" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G88" s="44" t="s">
+      <c r="G88" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H88" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88" s="16"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
         <v>44953</v>
       </c>
@@ -3080,15 +3389,16 @@
       <c r="D89" s="2">
         <v>0</v>
       </c>
-      <c r="E89" s="35">
+      <c r="E89" s="33">
         <v>0</v>
       </c>
       <c r="F89" s="15"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="16"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="16"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>44954</v>
       </c>
@@ -3101,15 +3411,16 @@
       <c r="D90" s="2">
         <v>0</v>
       </c>
-      <c r="E90" s="35">
+      <c r="E90" s="33">
         <v>0</v>
       </c>
       <c r="F90" s="15"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="16"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="16"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>44955</v>
       </c>
@@ -3122,15 +3433,16 @@
       <c r="D91" s="2">
         <v>0</v>
       </c>
-      <c r="E91" s="35">
+      <c r="E91" s="33">
         <v>0</v>
       </c>
       <c r="F91" s="15"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="16"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="16"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>44956</v>
       </c>
@@ -3143,15 +3455,16 @@
       <c r="D92" s="2">
         <v>0</v>
       </c>
-      <c r="E92" s="35">
+      <c r="E92" s="33">
         <v>0</v>
       </c>
       <c r="F92" s="15"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="16"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="16"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>44957</v>
       </c>
@@ -3164,21 +3477,24 @@
       <c r="D93" s="2">
         <v>0</v>
       </c>
-      <c r="E93" s="35">
+      <c r="E93" s="33">
         <v>0</v>
       </c>
       <c r="F93" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G93" s="20" t="s">
+      <c r="G93" s="46"/>
+      <c r="H93" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H93" s="20" t="s">
+      <c r="I93" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I93" s="16"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>44958</v>
       </c>
@@ -3191,21 +3507,24 @@
       <c r="D94" s="2">
         <v>0</v>
       </c>
-      <c r="E94" s="35">
+      <c r="E94" s="33">
         <v>0</v>
       </c>
       <c r="F94" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G94" s="20" t="s">
+      <c r="G94" s="46"/>
+      <c r="H94" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H94" s="20" t="s">
+      <c r="I94" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I94" s="16"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>44959</v>
       </c>
@@ -3218,21 +3537,24 @@
       <c r="D95" s="2">
         <v>0</v>
       </c>
-      <c r="E95" s="35">
+      <c r="E95" s="33">
         <v>0</v>
       </c>
       <c r="F95" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G95" s="20" t="s">
+      <c r="G95" s="46"/>
+      <c r="H95" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H95" s="20" t="s">
+      <c r="I95" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I95" s="16"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>44960</v>
       </c>
@@ -3245,15 +3567,16 @@
       <c r="D96" s="2">
         <v>0</v>
       </c>
-      <c r="E96" s="35">
+      <c r="E96" s="33">
         <v>0</v>
       </c>
       <c r="F96" s="15"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="16"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="16"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>44961</v>
       </c>
@@ -3266,15 +3589,16 @@
       <c r="D97" s="2">
         <v>0</v>
       </c>
-      <c r="E97" s="35">
+      <c r="E97" s="33">
         <v>0</v>
       </c>
       <c r="F97" s="15"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="16"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="16"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>44962</v>
       </c>
@@ -3287,15 +3611,16 @@
       <c r="D98" s="2">
         <v>0</v>
       </c>
-      <c r="E98" s="35">
+      <c r="E98" s="33">
         <v>0</v>
       </c>
       <c r="F98" s="15"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="16"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="16"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>44963</v>
       </c>
@@ -3308,15 +3633,16 @@
       <c r="D99" s="2">
         <v>0</v>
       </c>
-      <c r="E99" s="35">
+      <c r="E99" s="33">
         <v>0</v>
       </c>
       <c r="F99" s="15"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="16"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="16"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
         <v>44964</v>
       </c>
@@ -3329,21 +3655,24 @@
       <c r="D100" s="1">
         <v>1</v>
       </c>
-      <c r="E100" s="35">
+      <c r="E100" s="33">
         <v>0</v>
       </c>
       <c r="F100" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G100" s="20" t="s">
+      <c r="G100" s="46"/>
+      <c r="H100" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H100" s="20" t="s">
+      <c r="I100" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I100" s="16"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>44965</v>
       </c>
@@ -3356,21 +3685,24 @@
       <c r="D101" s="1">
         <v>1</v>
       </c>
-      <c r="E101" s="35">
+      <c r="E101" s="33">
         <v>0</v>
       </c>
       <c r="F101" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G101" s="20" t="s">
+      <c r="G101" s="46"/>
+      <c r="H101" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H101" s="20" t="s">
+      <c r="I101" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I101" s="16"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>44966</v>
       </c>
@@ -3383,21 +3715,24 @@
       <c r="D102" s="1">
         <v>1</v>
       </c>
-      <c r="E102" s="35">
+      <c r="E102" s="33">
         <v>0</v>
       </c>
       <c r="F102" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="20" t="s">
+      <c r="G102" s="46"/>
+      <c r="H102" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H102" s="20" t="s">
+      <c r="I102" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I102" s="16"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>44967</v>
       </c>
@@ -3410,15 +3745,16 @@
       <c r="D103" s="2">
         <v>0</v>
       </c>
-      <c r="E103" s="35">
+      <c r="E103" s="33">
         <v>0</v>
       </c>
       <c r="F103" s="15"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="16"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="47"/>
+      <c r="J103" s="16"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>44968</v>
       </c>
@@ -3431,15 +3767,16 @@
       <c r="D104" s="2">
         <v>0</v>
       </c>
-      <c r="E104" s="35">
+      <c r="E104" s="33">
         <v>0</v>
       </c>
       <c r="F104" s="15"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="16"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G104" s="46"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="46"/>
+      <c r="J104" s="16"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>44969</v>
       </c>
@@ -3452,15 +3789,16 @@
       <c r="D105" s="2">
         <v>0</v>
       </c>
-      <c r="E105" s="35">
+      <c r="E105" s="33">
         <v>0</v>
       </c>
       <c r="F105" s="15"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="16"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G105" s="46"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="46"/>
+      <c r="J105" s="16"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>44970</v>
       </c>
@@ -3473,15 +3811,16 @@
       <c r="D106" s="2">
         <v>0</v>
       </c>
-      <c r="E106" s="35">
+      <c r="E106" s="33">
         <v>0</v>
       </c>
       <c r="F106" s="15"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="16"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="46"/>
+      <c r="J106" s="16"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>44971</v>
       </c>
@@ -3494,21 +3833,26 @@
       <c r="D107" s="2">
         <v>0</v>
       </c>
-      <c r="E107" s="35">
+      <c r="E107" s="33">
         <v>0</v>
       </c>
       <c r="F107" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G107" s="44" t="s">
+      <c r="G107" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H107" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H107" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I107" s="16"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
         <v>44972</v>
       </c>
@@ -3521,21 +3865,26 @@
       <c r="D108" s="2">
         <v>0</v>
       </c>
-      <c r="E108" s="35">
+      <c r="E108" s="33">
         <v>0</v>
       </c>
       <c r="F108" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G108" s="44" t="s">
+      <c r="G108" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H108" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I108" s="16"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>44973</v>
       </c>
@@ -3548,21 +3897,26 @@
       <c r="D109" s="2">
         <v>0</v>
       </c>
-      <c r="E109" s="35">
+      <c r="E109" s="33">
         <v>0</v>
       </c>
       <c r="F109" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G109" s="44" t="s">
+      <c r="G109" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H109" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I109" s="16"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
         <v>44974</v>
       </c>
@@ -3575,15 +3929,16 @@
       <c r="D110" s="2">
         <v>0</v>
       </c>
-      <c r="E110" s="35">
+      <c r="E110" s="33">
         <v>0</v>
       </c>
       <c r="F110" s="15"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="16"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="47"/>
+      <c r="J110" s="16"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
         <v>44975</v>
       </c>
@@ -3596,15 +3951,16 @@
       <c r="D111" s="2">
         <v>0</v>
       </c>
-      <c r="E111" s="35">
+      <c r="E111" s="33">
         <v>0</v>
       </c>
       <c r="F111" s="15"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="21"/>
-      <c r="I111" s="16"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G111" s="46"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="16"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>44976</v>
       </c>
@@ -3617,15 +3973,16 @@
       <c r="D112" s="2">
         <v>0</v>
       </c>
-      <c r="E112" s="35">
+      <c r="E112" s="33">
         <v>0</v>
       </c>
       <c r="F112" s="15"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="21"/>
-      <c r="I112" s="16"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G112" s="46"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="16"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>44977</v>
       </c>
@@ -3638,15 +3995,16 @@
       <c r="D113" s="2">
         <v>0</v>
       </c>
-      <c r="E113" s="35">
+      <c r="E113" s="33">
         <v>0</v>
       </c>
       <c r="F113" s="15"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="16"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G113" s="46"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="46"/>
+      <c r="J113" s="16"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>44978</v>
       </c>
@@ -3659,21 +4017,26 @@
       <c r="D114" s="2">
         <v>0</v>
       </c>
-      <c r="E114" s="35">
+      <c r="E114" s="33">
         <v>0</v>
       </c>
       <c r="F114" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G114" s="44" t="s">
+      <c r="G114" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H114" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I114" s="16"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I114" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J114" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>44979</v>
       </c>
@@ -3686,21 +4049,26 @@
       <c r="D115" s="2">
         <v>0</v>
       </c>
-      <c r="E115" s="35">
+      <c r="E115" s="33">
         <v>0</v>
       </c>
       <c r="F115" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G115" s="44" t="s">
+      <c r="G115" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H115" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H115" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I115" s="16"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I115" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J115" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
         <v>44980</v>
       </c>
@@ -3713,21 +4081,26 @@
       <c r="D116" s="2">
         <v>0</v>
       </c>
-      <c r="E116" s="35">
+      <c r="E116" s="33">
         <v>0</v>
       </c>
       <c r="F116" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G116" s="44" t="s">
+      <c r="G116" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H116" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I116" s="16"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I116" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J116" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>44981</v>
       </c>
@@ -3740,15 +4113,16 @@
       <c r="D117" s="2">
         <v>0</v>
       </c>
-      <c r="E117" s="35">
+      <c r="E117" s="33">
         <v>0</v>
       </c>
       <c r="F117" s="15"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="16"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G117" s="46"/>
+      <c r="H117" s="46"/>
+      <c r="I117" s="46"/>
+      <c r="J117" s="16"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
         <v>44982</v>
       </c>
@@ -3761,15 +4135,16 @@
       <c r="D118" s="2">
         <v>0</v>
       </c>
-      <c r="E118" s="35">
+      <c r="E118" s="33">
         <v>0</v>
       </c>
       <c r="F118" s="15"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="16"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G118" s="46"/>
+      <c r="H118" s="46"/>
+      <c r="I118" s="46"/>
+      <c r="J118" s="16"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>44983</v>
       </c>
@@ -3782,15 +4157,16 @@
       <c r="D119" s="2">
         <v>0</v>
       </c>
-      <c r="E119" s="35">
+      <c r="E119" s="33">
         <v>0</v>
       </c>
       <c r="F119" s="15"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="16"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G119" s="46"/>
+      <c r="H119" s="46"/>
+      <c r="I119" s="46"/>
+      <c r="J119" s="16"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
         <v>44984</v>
       </c>
@@ -3803,15 +4179,16 @@
       <c r="D120" s="2">
         <v>0</v>
       </c>
-      <c r="E120" s="35">
-        <v>0</v>
-      </c>
-      <c r="F120" s="43"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="16"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E120" s="33">
+        <v>0</v>
+      </c>
+      <c r="F120" s="40"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="46"/>
+      <c r="I120" s="46"/>
+      <c r="J120" s="16"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
         <v>44985</v>
       </c>
@@ -3824,21 +4201,26 @@
       <c r="D121" s="2">
         <v>0</v>
       </c>
-      <c r="E121" s="35">
+      <c r="E121" s="33">
         <v>0</v>
       </c>
       <c r="F121" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G121" s="44" t="s">
+      <c r="G121" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H121" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H121" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I121" s="16"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J121" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>44986</v>
       </c>
@@ -3851,21 +4233,26 @@
       <c r="D122" s="2">
         <v>0</v>
       </c>
-      <c r="E122" s="35">
+      <c r="E122" s="33">
         <v>0</v>
       </c>
       <c r="F122" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G122" s="44" t="s">
+      <c r="G122" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I122" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H122" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122" s="16"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J122" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
         <v>44987</v>
       </c>
@@ -3878,21 +4265,26 @@
       <c r="D123" s="2">
         <v>0</v>
       </c>
-      <c r="E123" s="35">
+      <c r="E123" s="33">
         <v>0</v>
       </c>
       <c r="F123" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G123" s="44" t="s">
+      <c r="G123" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H123" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H123" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I123" s="16"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J123" s="43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
         <v>44988</v>
       </c>
@@ -3905,15 +4297,16 @@
       <c r="D124" s="2">
         <v>0</v>
       </c>
-      <c r="E124" s="35">
+      <c r="E124" s="33">
         <v>0</v>
       </c>
       <c r="F124" s="15"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="16"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G124" s="46"/>
+      <c r="H124" s="46"/>
+      <c r="I124" s="46"/>
+      <c r="J124" s="16"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>44989</v>
       </c>
@@ -3926,15 +4319,16 @@
       <c r="D125" s="2">
         <v>0</v>
       </c>
-      <c r="E125" s="35">
+      <c r="E125" s="33">
         <v>0</v>
       </c>
       <c r="F125" s="15"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="16"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G125" s="46"/>
+      <c r="H125" s="46"/>
+      <c r="I125" s="46"/>
+      <c r="J125" s="16"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
         <v>44990</v>
       </c>
@@ -3947,15 +4341,16 @@
       <c r="D126" s="2">
         <v>0</v>
       </c>
-      <c r="E126" s="35">
+      <c r="E126" s="33">
         <v>0</v>
       </c>
       <c r="F126" s="15"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="16"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G126" s="46"/>
+      <c r="H126" s="46"/>
+      <c r="I126" s="46"/>
+      <c r="J126" s="16"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="9">
         <v>44991</v>
       </c>
@@ -3968,15 +4363,16 @@
       <c r="D127" s="2">
         <v>0</v>
       </c>
-      <c r="E127" s="35">
+      <c r="E127" s="33">
         <v>0</v>
       </c>
       <c r="F127" s="15"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="16"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G127" s="46"/>
+      <c r="H127" s="46"/>
+      <c r="I127" s="46"/>
+      <c r="J127" s="16"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
         <v>44992</v>
       </c>
@@ -3989,21 +4385,24 @@
       <c r="D128" s="1">
         <v>1</v>
       </c>
-      <c r="E128" s="35">
+      <c r="E128" s="33">
         <v>0</v>
       </c>
       <c r="F128" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G128" s="20" t="s">
+      <c r="G128" s="46"/>
+      <c r="H128" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H128" s="20" t="s">
+      <c r="I128" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I128" s="16"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J128" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
         <v>44993</v>
       </c>
@@ -4016,21 +4415,24 @@
       <c r="D129" s="1">
         <v>1</v>
       </c>
-      <c r="E129" s="35">
+      <c r="E129" s="33">
         <v>0</v>
       </c>
       <c r="F129" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G129" s="20" t="s">
+      <c r="G129" s="46"/>
+      <c r="H129" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H129" s="20" t="s">
+      <c r="I129" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I129" s="16"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J129" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
         <v>44994</v>
       </c>
@@ -4043,21 +4445,24 @@
       <c r="D130" s="1">
         <v>1</v>
       </c>
-      <c r="E130" s="35">
+      <c r="E130" s="33">
         <v>0</v>
       </c>
       <c r="F130" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G130" s="20" t="s">
+      <c r="G130" s="46"/>
+      <c r="H130" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H130" s="20" t="s">
+      <c r="I130" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="I130" s="16"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J130" s="45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="9">
         <v>44995</v>
       </c>
@@ -4070,15 +4475,16 @@
       <c r="D131" s="2">
         <v>0</v>
       </c>
-      <c r="E131" s="35">
+      <c r="E131" s="33">
         <v>0</v>
       </c>
       <c r="F131" s="15"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="16"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G131" s="46"/>
+      <c r="H131" s="46"/>
+      <c r="I131" s="46"/>
+      <c r="J131" s="16"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="9">
         <v>44996</v>
       </c>
@@ -4091,15 +4497,16 @@
       <c r="D132" s="2">
         <v>0</v>
       </c>
-      <c r="E132" s="35">
+      <c r="E132" s="33">
         <v>0</v>
       </c>
       <c r="F132" s="15"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="16"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G132" s="46"/>
+      <c r="H132" s="46"/>
+      <c r="I132" s="46"/>
+      <c r="J132" s="16"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
         <v>44997</v>
       </c>
@@ -4112,15 +4519,16 @@
       <c r="D133" s="2">
         <v>0</v>
       </c>
-      <c r="E133" s="35">
+      <c r="E133" s="33">
         <v>0</v>
       </c>
       <c r="F133" s="15"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="16"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G133" s="46"/>
+      <c r="H133" s="46"/>
+      <c r="I133" s="46"/>
+      <c r="J133" s="16"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="9">
         <v>44998</v>
       </c>
@@ -4133,15 +4541,16 @@
       <c r="D134" s="2">
         <v>0</v>
       </c>
-      <c r="E134" s="35">
+      <c r="E134" s="33">
         <v>0</v>
       </c>
       <c r="F134" s="15"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="16"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G134" s="46"/>
+      <c r="H134" s="46"/>
+      <c r="I134" s="46"/>
+      <c r="J134" s="16"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
         <v>44999</v>
       </c>
@@ -4154,21 +4563,26 @@
       <c r="D135" s="2">
         <v>0</v>
       </c>
-      <c r="E135" s="35">
+      <c r="E135" s="33">
         <v>0</v>
       </c>
       <c r="F135" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G135" s="44" t="s">
+      <c r="G135" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H135" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I135" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H135" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I135" s="16"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J135" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="9">
         <v>45000</v>
       </c>
@@ -4181,21 +4595,26 @@
       <c r="D136" s="2">
         <v>0</v>
       </c>
-      <c r="E136" s="35">
+      <c r="E136" s="33">
         <v>0</v>
       </c>
       <c r="F136" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G136" s="44" t="s">
+      <c r="G136" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H136" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I136" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H136" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I136" s="16"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J136" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="9">
         <v>45001</v>
       </c>
@@ -4208,21 +4627,26 @@
       <c r="D137" s="2">
         <v>0</v>
       </c>
-      <c r="E137" s="35">
+      <c r="E137" s="33">
         <v>0</v>
       </c>
       <c r="F137" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G137" s="44" t="s">
+      <c r="G137" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H137" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H137" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I137" s="16"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J137" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="9">
         <v>45002</v>
       </c>
@@ -4235,15 +4659,16 @@
       <c r="D138" s="2">
         <v>0</v>
       </c>
-      <c r="E138" s="35">
-        <v>0</v>
-      </c>
-      <c r="F138" s="43"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="16"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E138" s="33">
+        <v>0</v>
+      </c>
+      <c r="F138" s="40"/>
+      <c r="G138" s="47"/>
+      <c r="H138" s="46"/>
+      <c r="I138" s="46"/>
+      <c r="J138" s="16"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="9">
         <v>45003</v>
       </c>
@@ -4256,15 +4681,16 @@
       <c r="D139" s="2">
         <v>0</v>
       </c>
-      <c r="E139" s="35">
+      <c r="E139" s="33">
         <v>0</v>
       </c>
       <c r="F139" s="15"/>
-      <c r="G139" s="21"/>
-      <c r="H139" s="21"/>
-      <c r="I139" s="16"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G139" s="46"/>
+      <c r="H139" s="47"/>
+      <c r="I139" s="47"/>
+      <c r="J139" s="16"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="9">
         <v>45004</v>
       </c>
@@ -4277,15 +4703,16 @@
       <c r="D140" s="2">
         <v>0</v>
       </c>
-      <c r="E140" s="35">
+      <c r="E140" s="33">
         <v>0</v>
       </c>
       <c r="F140" s="15"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="16"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G140" s="46"/>
+      <c r="H140" s="46"/>
+      <c r="I140" s="46"/>
+      <c r="J140" s="16"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="9">
         <v>45005</v>
       </c>
@@ -4298,15 +4725,16 @@
       <c r="D141" s="2">
         <v>0</v>
       </c>
-      <c r="E141" s="35">
+      <c r="E141" s="33">
         <v>0</v>
       </c>
       <c r="F141" s="15"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="16"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G141" s="46"/>
+      <c r="H141" s="46"/>
+      <c r="I141" s="46"/>
+      <c r="J141" s="16"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="9">
         <v>45006</v>
       </c>
@@ -4319,21 +4747,26 @@
       <c r="D142" s="2">
         <v>0</v>
       </c>
-      <c r="E142" s="35">
+      <c r="E142" s="33">
         <v>0</v>
       </c>
       <c r="F142" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G142" s="44" t="s">
+      <c r="G142" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H142" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H142" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I142" s="16"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J142" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="9">
         <v>45007</v>
       </c>
@@ -4346,21 +4779,26 @@
       <c r="D143" s="2">
         <v>0</v>
       </c>
-      <c r="E143" s="35">
+      <c r="E143" s="33">
         <v>0</v>
       </c>
       <c r="F143" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G143" s="44" t="s">
+      <c r="G143" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H143" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I143" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H143" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I143" s="16"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J143" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="9">
         <v>45008</v>
       </c>
@@ -4373,21 +4811,26 @@
       <c r="D144" s="2">
         <v>0</v>
       </c>
-      <c r="E144" s="35">
+      <c r="E144" s="33">
         <v>0</v>
       </c>
       <c r="F144" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G144" s="44" t="s">
+      <c r="G144" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H144" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I144" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H144" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I144" s="16"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J144" s="42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="9">
         <v>45009</v>
       </c>
@@ -4400,15 +4843,16 @@
       <c r="D145" s="2">
         <v>0</v>
       </c>
-      <c r="E145" s="35">
+      <c r="E145" s="33">
         <v>0</v>
       </c>
       <c r="F145" s="15"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-      <c r="I145" s="16"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G145" s="46"/>
+      <c r="H145" s="46"/>
+      <c r="I145" s="46"/>
+      <c r="J145" s="16"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="9">
         <v>45010</v>
       </c>
@@ -4421,15 +4865,16 @@
       <c r="D146" s="2">
         <v>0</v>
       </c>
-      <c r="E146" s="35">
+      <c r="E146" s="33">
         <v>0</v>
       </c>
       <c r="F146" s="15"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="21"/>
-      <c r="I146" s="16"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G146" s="46"/>
+      <c r="H146" s="46"/>
+      <c r="I146" s="47"/>
+      <c r="J146" s="16"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="9">
         <v>45011</v>
       </c>
@@ -4442,15 +4887,16 @@
       <c r="D147" s="2">
         <v>0</v>
       </c>
-      <c r="E147" s="35">
-        <v>0</v>
-      </c>
-      <c r="F147" s="43"/>
-      <c r="G147" s="21"/>
-      <c r="H147" s="21"/>
-      <c r="I147" s="16"/>
-    </row>
-    <row r="148" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E147" s="33">
+        <v>0</v>
+      </c>
+      <c r="F147" s="40"/>
+      <c r="G147" s="47"/>
+      <c r="H147" s="47"/>
+      <c r="I147" s="47"/>
+      <c r="J147" s="16"/>
+    </row>
+    <row r="148" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9">
         <v>45012</v>
       </c>
@@ -4463,15 +4909,16 @@
       <c r="D148" s="2">
         <v>0</v>
       </c>
-      <c r="E148" s="35">
-        <v>0</v>
-      </c>
-      <c r="F148" s="43"/>
-      <c r="G148" s="21"/>
-      <c r="H148" s="21"/>
-      <c r="I148" s="16"/>
-    </row>
-    <row r="149" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E148" s="33">
+        <v>0</v>
+      </c>
+      <c r="F148" s="40"/>
+      <c r="G148" s="47"/>
+      <c r="H148" s="47"/>
+      <c r="I148" s="47"/>
+      <c r="J148" s="16"/>
+    </row>
+    <row r="149" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
         <v>45013</v>
       </c>
@@ -4484,22 +4931,23 @@
       <c r="D149" s="2">
         <v>0</v>
       </c>
-      <c r="E149" s="35">
+      <c r="E149" s="33">
         <v>0</v>
       </c>
       <c r="F149" s="15"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="16"/>
-      <c r="K149" s="28" t="s">
+      <c r="G149" s="46"/>
+      <c r="H149" s="46"/>
+      <c r="I149" s="46"/>
+      <c r="J149" s="16"/>
+      <c r="L149" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="L149" s="29">
+      <c r="M149" s="28">
         <f>COUNTIF(F1:F152,"None")</f>
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="9">
         <v>45014</v>
       </c>
@@ -4512,28 +4960,33 @@
       <c r="D150" s="2">
         <v>0</v>
       </c>
-      <c r="E150" s="35">
+      <c r="E150" s="33">
         <v>0</v>
       </c>
       <c r="F150" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G150" s="44" t="s">
+      <c r="G150" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H150" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I150" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H150" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I150" s="16"/>
-      <c r="K150" s="28" t="s">
+      <c r="J150" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L150" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L150" s="29">
+      <c r="M150" s="28">
         <f>COUNTIF(F2:F153,"Arevalo")</f>
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9">
         <v>45015</v>
       </c>
@@ -4546,392 +4999,477 @@
       <c r="D151" s="2">
         <v>0</v>
       </c>
-      <c r="E151" s="35">
+      <c r="E151" s="33">
         <v>0</v>
       </c>
       <c r="F151" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G151" s="44" t="s">
+      <c r="G151" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H151" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I151" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H151" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I151" s="16"/>
-      <c r="K151" s="30" t="s">
+      <c r="J151" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L151" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L151" s="17">
+      <c r="M151" s="17">
         <f>COUNTIF(F2:F153,"Leiva")</f>
         <v>39</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9">
         <v>45016</v>
       </c>
-      <c r="B152" s="22">
-        <v>0</v>
-      </c>
-      <c r="C152" s="23">
-        <v>1</v>
-      </c>
-      <c r="D152" s="24">
-        <v>0</v>
-      </c>
-      <c r="E152" s="37">
+      <c r="B152" s="21">
+        <v>0</v>
+      </c>
+      <c r="C152" s="22">
+        <v>1</v>
+      </c>
+      <c r="D152" s="23">
+        <v>0</v>
+      </c>
+      <c r="E152" s="35">
         <v>0</v>
       </c>
       <c r="F152" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G152" s="44" t="s">
+      <c r="G152" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H152" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I152" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H152" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I152" s="16"/>
-      <c r="L152" s="31">
-        <f>SUM(L149:L151)</f>
+      <c r="J152" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="M152" s="30">
+        <f>SUM(M149:M151)</f>
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B153" s="25">
+      <c r="B153" s="24">
         <f>SUM(B2:B152)</f>
         <v>33</v>
       </c>
-      <c r="C153" s="26">
+      <c r="C153" s="25">
         <f>SUM(C2:C152)</f>
         <v>18</v>
       </c>
-      <c r="D153" s="27">
+      <c r="D153" s="26">
         <f>SUM(D2:D152)</f>
         <v>15</v>
       </c>
-      <c r="E153" s="38">
+      <c r="E153" s="36">
         <f>SUM(E2:E152)</f>
         <v>0</v>
       </c>
       <c r="F153" s="18"/>
       <c r="G153" s="19"/>
       <c r="H153" s="19"/>
-      <c r="I153" s="17"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I153" s="19"/>
+      <c r="J153" s="17"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F155" s="21"/>
-      <c r="G155" s="21"/>
-      <c r="H155" s="21"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F156" s="21"/>
-      <c r="G156" s="21"/>
-      <c r="H156" s="21"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I154" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J154" s="28">
+        <f>COUNTIF(J2:J153,"True")</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J155" s="17">
+        <f>COUNTIF(J2:J153,"Weather loss")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F156" s="20"/>
+      <c r="G156" s="20"/>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F157" s="7"/>
-      <c r="G157" s="21"/>
-      <c r="H157" s="21"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G157" s="7"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I158" s="7"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I159" s="7"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
-    </row>
-    <row r="161" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I160" s="7"/>
+    </row>
+    <row r="161" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
-    </row>
-    <row r="162" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I161" s="7"/>
+    </row>
+    <row r="162" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
-    </row>
-    <row r="163" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I162" s="7"/>
+    </row>
+    <row r="163" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
-    </row>
-    <row r="164" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F164" s="21"/>
-      <c r="G164" s="21"/>
-      <c r="H164" s="21"/>
-    </row>
-    <row r="165" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="21"/>
-    </row>
-    <row r="166" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I163" s="7"/>
+    </row>
+    <row r="164" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+    </row>
+    <row r="165" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+    </row>
+    <row r="166" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
-    </row>
-    <row r="167" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I166" s="7"/>
+    </row>
+    <row r="167" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
-    </row>
-    <row r="168" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I167" s="7"/>
+    </row>
+    <row r="168" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
-    </row>
-    <row r="169" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I168" s="7"/>
+    </row>
+    <row r="169" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F169" s="7"/>
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
-    </row>
-    <row r="170" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I169" s="7"/>
+    </row>
+    <row r="170" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
-    </row>
-    <row r="171" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I170" s="7"/>
+    </row>
+    <row r="171" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F171" s="7"/>
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
-    </row>
-    <row r="172" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I171" s="7"/>
+    </row>
+    <row r="172" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
-    </row>
-    <row r="173" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F173" s="21"/>
-      <c r="G173" s="21"/>
-      <c r="H173" s="21"/>
-    </row>
-    <row r="174" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F174" s="21"/>
-      <c r="G174" s="21"/>
-      <c r="H174" s="21"/>
-    </row>
-    <row r="175" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I172" s="7"/>
+    </row>
+    <row r="173" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+    </row>
+    <row r="174" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F174" s="20"/>
+      <c r="G174" s="20"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+    </row>
+    <row r="175" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F175" s="7"/>
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
-    </row>
-    <row r="176" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I175" s="7"/>
+    </row>
+    <row r="176" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
       <c r="H176" s="7"/>
-    </row>
-    <row r="177" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I176" s="7"/>
+    </row>
+    <row r="177" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
-    </row>
-    <row r="178" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I177" s="7"/>
+    </row>
+    <row r="178" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
-    </row>
-    <row r="179" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I178" s="7"/>
+    </row>
+    <row r="179" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F179" s="7"/>
       <c r="G179" s="7"/>
       <c r="H179" s="7"/>
-    </row>
-    <row r="180" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I179" s="7"/>
+    </row>
+    <row r="180" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
       <c r="H180" s="7"/>
-    </row>
-    <row r="181" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I180" s="7"/>
+    </row>
+    <row r="181" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F181" s="7"/>
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
-    </row>
-    <row r="182" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F182" s="21"/>
-      <c r="G182" s="21"/>
-      <c r="H182" s="21"/>
-    </row>
-    <row r="183" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F183" s="21"/>
-      <c r="G183" s="21"/>
-      <c r="H183" s="21"/>
-    </row>
-    <row r="184" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I181" s="7"/>
+    </row>
+    <row r="182" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F182" s="20"/>
+      <c r="G182" s="20"/>
+      <c r="H182" s="20"/>
+      <c r="I182" s="20"/>
+    </row>
+    <row r="183" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F183" s="20"/>
+      <c r="G183" s="20"/>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
+    </row>
+    <row r="184" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
-    </row>
-    <row r="185" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I184" s="7"/>
+    </row>
+    <row r="185" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F185" s="7"/>
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
-    </row>
-    <row r="186" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I185" s="7"/>
+    </row>
+    <row r="186" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
-    </row>
-    <row r="187" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I186" s="7"/>
+    </row>
+    <row r="187" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F187" s="7"/>
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
-    </row>
-    <row r="188" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I187" s="7"/>
+    </row>
+    <row r="188" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
-    </row>
-    <row r="189" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I188" s="7"/>
+    </row>
+    <row r="189" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F189" s="7"/>
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
-    </row>
-    <row r="190" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I189" s="7"/>
+    </row>
+    <row r="190" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
       <c r="H190" s="7"/>
-    </row>
-    <row r="191" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F191" s="21"/>
-      <c r="G191" s="21"/>
-      <c r="H191" s="21"/>
-    </row>
-    <row r="192" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F192" s="21"/>
-      <c r="G192" s="21"/>
-      <c r="H192" s="21"/>
-    </row>
-    <row r="193" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I190" s="7"/>
+    </row>
+    <row r="191" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F191" s="20"/>
+      <c r="G191" s="20"/>
+      <c r="H191" s="20"/>
+      <c r="I191" s="20"/>
+    </row>
+    <row r="192" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F192" s="20"/>
+      <c r="G192" s="20"/>
+      <c r="H192" s="20"/>
+      <c r="I192" s="20"/>
+    </row>
+    <row r="193" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F193" s="7"/>
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
-    </row>
-    <row r="194" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I193" s="7"/>
+    </row>
+    <row r="194" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
-    </row>
-    <row r="195" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I194" s="7"/>
+    </row>
+    <row r="195" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
-    </row>
-    <row r="196" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I195" s="7"/>
+    </row>
+    <row r="196" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
       <c r="H196" s="7"/>
-    </row>
-    <row r="197" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I196" s="7"/>
+    </row>
+    <row r="197" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F197" s="7"/>
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
-    </row>
-    <row r="198" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I197" s="7"/>
+    </row>
+    <row r="198" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
       <c r="H198" s="7"/>
-    </row>
-    <row r="199" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I198" s="7"/>
+    </row>
+    <row r="199" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F199" s="7"/>
       <c r="G199" s="7"/>
       <c r="H199" s="7"/>
-    </row>
-    <row r="200" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F200" s="21"/>
-      <c r="G200" s="21"/>
-      <c r="H200" s="21"/>
-    </row>
-    <row r="201" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F201" s="21"/>
-      <c r="G201" s="21"/>
-      <c r="H201" s="21"/>
-    </row>
-    <row r="202" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I199" s="7"/>
+    </row>
+    <row r="200" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F200" s="20"/>
+      <c r="G200" s="20"/>
+      <c r="H200" s="20"/>
+      <c r="I200" s="20"/>
+    </row>
+    <row r="201" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F201" s="20"/>
+      <c r="G201" s="20"/>
+      <c r="H201" s="20"/>
+      <c r="I201" s="20"/>
+    </row>
+    <row r="202" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
       <c r="H202" s="7"/>
-    </row>
-    <row r="203" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I202" s="7"/>
+    </row>
+    <row r="203" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
       <c r="H203" s="7"/>
-    </row>
-    <row r="204" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I203" s="7"/>
+    </row>
+    <row r="204" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
       <c r="H204" s="7"/>
-    </row>
-    <row r="205" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I204" s="7"/>
+    </row>
+    <row r="205" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
-    </row>
-    <row r="206" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I205" s="7"/>
+    </row>
+    <row r="206" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
       <c r="H206" s="7"/>
-    </row>
-    <row r="207" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I206" s="7"/>
+    </row>
+    <row r="207" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
       <c r="H207" s="7"/>
-    </row>
-    <row r="208" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I207" s="7"/>
+    </row>
+    <row r="208" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
       <c r="H208" s="7"/>
-    </row>
-    <row r="209" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I208" s="7"/>
+    </row>
+    <row r="209" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F209" s="7"/>
-      <c r="G209" s="21"/>
-      <c r="H209" s="21"/>
-    </row>
-    <row r="210" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G209" s="7"/>
+      <c r="H209" s="20"/>
+      <c r="I209" s="20"/>
+    </row>
+    <row r="210" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F210" s="7"/>
-      <c r="G210" s="21"/>
-      <c r="H210" s="21"/>
-    </row>
-    <row r="211" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="G210" s="7"/>
+      <c r="H210" s="20"/>
+      <c r="I210" s="20"/>
+    </row>
+    <row r="211" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
       <c r="H211" s="7"/>
-    </row>
-    <row r="212" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I211" s="7"/>
+    </row>
+    <row r="212" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
       <c r="H212" s="7"/>
-    </row>
-    <row r="213" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I212" s="7"/>
+    </row>
+    <row r="213" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
       <c r="H213" s="7"/>
-    </row>
-    <row r="214" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I213" s="7"/>
+    </row>
+    <row r="214" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
       <c r="H214" s="7"/>
-    </row>
-    <row r="215" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="I214" s="7"/>
+    </row>
+    <row r="215" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
       <c r="H215" s="7"/>
+      <c r="I215" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
